--- a/Data/1685_MOB.xlsx
+++ b/Data/1685_MOB.xlsx
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -159,7 +159,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -168,6 +167,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K323"/>
+  <dimension ref="A2:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A483" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E498" sqref="E498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3260,9 +3265,15 @@
         <f t="shared" ref="B148:B179" si="6">B147+1</f>
         <v>146</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
+      <c r="C148" s="8">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D148" s="8">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="E148" s="8">
+        <v>5000.1000000000004</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -3273,9 +3284,15 @@
         <f t="shared" si="6"/>
         <v>147</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="C149" s="8">
+        <v>5003.8</v>
+      </c>
+      <c r="D149" s="8">
+        <v>5003.8</v>
+      </c>
+      <c r="E149" s="8">
+        <v>5003.8</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -3286,9 +3303,15 @@
         <f t="shared" si="6"/>
         <v>148</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="C150" s="8">
+        <v>5002.7</v>
+      </c>
+      <c r="D150" s="8">
+        <v>5002.6000000000004</v>
+      </c>
+      <c r="E150" s="8">
+        <v>5002.6000000000004</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -3299,9 +3322,15 @@
         <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="C151" s="8">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="D151" s="8">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="E151" s="8">
+        <v>4997.3999999999996</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -3312,9 +3341,15 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
+      <c r="C152" s="8">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="D152" s="8">
+        <v>5003.8</v>
+      </c>
+      <c r="E152" s="8">
+        <v>5003.7</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -3325,9 +3360,15 @@
         <f t="shared" si="6"/>
         <v>151</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
+      <c r="C153" s="8">
+        <v>4997.7</v>
+      </c>
+      <c r="D153" s="8">
+        <v>4997.8</v>
+      </c>
+      <c r="E153" s="8">
+        <v>4997.7</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -3338,9 +3379,15 @@
         <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="C154" s="8">
+        <v>4995.8999999999996</v>
+      </c>
+      <c r="D154" s="8">
+        <v>4995.8999999999996</v>
+      </c>
+      <c r="E154" s="8">
+        <v>4995.8999999999996</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -3351,9 +3398,15 @@
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="C155" s="8">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D155" s="8">
+        <v>5002</v>
+      </c>
+      <c r="E155" s="8">
+        <v>5002.3</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -3364,9 +3417,15 @@
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="C156" s="8">
+        <v>5002.5</v>
+      </c>
+      <c r="D156" s="8">
+        <v>5002.3</v>
+      </c>
+      <c r="E156" s="8">
+        <v>5002.3</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -3377,9 +3436,15 @@
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="C157" s="8">
+        <v>5002.7</v>
+      </c>
+      <c r="D157" s="8">
+        <v>5002.3</v>
+      </c>
+      <c r="E157" s="8">
+        <v>5002.3</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -3390,9 +3455,15 @@
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="C158" s="8">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="D158" s="8">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E158" s="8">
+        <v>5003</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -3403,9 +3474,15 @@
         <f t="shared" si="6"/>
         <v>157</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="C159" s="8">
+        <v>5002.7</v>
+      </c>
+      <c r="D159" s="8">
+        <v>5002.6000000000004</v>
+      </c>
+      <c r="E159" s="8">
+        <v>5002.5</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -3416,9 +3493,15 @@
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+      <c r="C160" s="8">
+        <v>5007.3</v>
+      </c>
+      <c r="D160" s="8">
+        <v>5007.2</v>
+      </c>
+      <c r="E160" s="8">
+        <v>5007.1000000000004</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -3429,9 +3512,15 @@
         <f t="shared" si="6"/>
         <v>159</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="C161" s="8">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="D161" s="8">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E161" s="8">
+        <v>5003.1000000000004</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -3442,9 +3531,15 @@
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="C162" s="8">
+        <v>5003.7</v>
+      </c>
+      <c r="D162" s="8">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="E162" s="8">
+        <v>5003.6000000000004</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -3455,9 +3550,15 @@
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
+      <c r="C163" s="8">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="D163" s="8">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="E163" s="8">
+        <v>5006.3999999999996</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -3468,9 +3569,15 @@
         <f t="shared" si="6"/>
         <v>162</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
+      <c r="C164" s="8">
+        <v>5007.8999999999996</v>
+      </c>
+      <c r="D164" s="8">
+        <v>5007.7</v>
+      </c>
+      <c r="E164" s="8">
+        <v>5007.8</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -3481,9 +3588,15 @@
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
+      <c r="C165" s="8">
+        <v>5015.2</v>
+      </c>
+      <c r="D165" s="8">
+        <v>5015.2</v>
+      </c>
+      <c r="E165" s="8">
+        <v>5015.2</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -3494,9 +3607,15 @@
         <f t="shared" si="6"/>
         <v>164</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
+      <c r="C166" s="8">
+        <v>4996.5</v>
+      </c>
+      <c r="D166" s="8">
+        <v>4996.5</v>
+      </c>
+      <c r="E166" s="8">
+        <v>4996.5</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -3507,9 +3626,15 @@
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="C167" s="8">
+        <v>5006.6000000000004</v>
+      </c>
+      <c r="D167" s="8">
+        <v>5006.8</v>
+      </c>
+      <c r="E167" s="8">
+        <v>5007</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -3520,9 +3645,15 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="C168" s="8">
+        <v>5006.7</v>
+      </c>
+      <c r="D168" s="8">
+        <v>5006.7</v>
+      </c>
+      <c r="E168" s="8">
+        <v>5006.7</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -3533,9 +3664,15 @@
         <f t="shared" si="6"/>
         <v>167</v>
       </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="C169" s="8">
+        <v>5002</v>
+      </c>
+      <c r="D169" s="8">
+        <v>5002</v>
+      </c>
+      <c r="E169" s="8">
+        <v>5002</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -3546,9 +3683,15 @@
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="C170" s="8">
+        <v>5008.6000000000004</v>
+      </c>
+      <c r="D170" s="8">
+        <v>5009</v>
+      </c>
+      <c r="E170" s="8">
+        <v>5008.6000000000004</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -3559,9 +3702,15 @@
         <f t="shared" si="6"/>
         <v>169</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="C171" s="8">
+        <v>5001.1000000000004</v>
+      </c>
+      <c r="D171" s="8">
+        <v>5001</v>
+      </c>
+      <c r="E171" s="8">
+        <v>5001.1000000000004</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -3572,9 +3721,15 @@
         <f t="shared" si="6"/>
         <v>170</v>
       </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="C172" s="8">
+        <v>4999</v>
+      </c>
+      <c r="D172" s="8">
+        <v>4999.1000000000004</v>
+      </c>
+      <c r="E172" s="8">
+        <v>4999.1000000000004</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -3585,9 +3740,15 @@
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="C173" s="8">
+        <v>5003.2</v>
+      </c>
+      <c r="D173" s="8">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E173" s="8">
+        <v>5003.1000000000004</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -3598,9 +3759,15 @@
         <f t="shared" si="6"/>
         <v>172</v>
       </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="C174" s="8">
+        <v>5001.3</v>
+      </c>
+      <c r="D174" s="8">
+        <v>5001.3</v>
+      </c>
+      <c r="E174" s="8">
+        <v>5001.3</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -3611,9 +3778,15 @@
         <f t="shared" si="6"/>
         <v>173</v>
       </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="C175" s="8">
+        <v>4995.3</v>
+      </c>
+      <c r="D175" s="8">
+        <v>4995.3</v>
+      </c>
+      <c r="E175" s="8">
+        <v>4995.3</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -3624,9 +3797,15 @@
         <f t="shared" si="6"/>
         <v>174</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="C176" s="8">
+        <v>5002.8</v>
+      </c>
+      <c r="D176" s="8">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="E176" s="8">
+        <v>5002.8</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -3637,9 +3816,15 @@
         <f t="shared" si="6"/>
         <v>175</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="C177" s="8">
+        <v>5006.5</v>
+      </c>
+      <c r="D177" s="8">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="E177" s="8">
+        <v>5006.3999999999996</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -3650,9 +3835,15 @@
         <f t="shared" si="6"/>
         <v>176</v>
       </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
+      <c r="C178" s="8">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="D178" s="8">
+        <v>4999.5</v>
+      </c>
+      <c r="E178" s="8">
+        <v>4999.5</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -3663,9 +3854,15 @@
         <f t="shared" si="6"/>
         <v>177</v>
       </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
+      <c r="C179" s="8">
+        <v>4996.8</v>
+      </c>
+      <c r="D179" s="8">
+        <v>4996.8</v>
+      </c>
+      <c r="E179" s="8">
+        <v>4996.8</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -3676,9 +3873,15 @@
         <f t="shared" ref="B180:B211" si="8">B179+1</f>
         <v>178</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
+      <c r="C180" s="8">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="D180" s="8">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="E180" s="8">
+        <v>5004.8999999999996</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -3689,9 +3892,15 @@
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
+      <c r="C181" s="8">
+        <v>5004.3999999999996</v>
+      </c>
+      <c r="D181" s="8">
+        <v>5004.3999999999996</v>
+      </c>
+      <c r="E181" s="8">
+        <v>5004.3999999999996</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -3702,9 +3911,15 @@
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
+      <c r="C182" s="8">
+        <v>4999.3</v>
+      </c>
+      <c r="D182" s="8">
+        <v>4999.3</v>
+      </c>
+      <c r="E182" s="8">
+        <v>4993.3</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -3715,9 +3930,15 @@
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="C183" s="8">
+        <v>5013.6000000000004</v>
+      </c>
+      <c r="D183" s="8">
+        <v>5013.5</v>
+      </c>
+      <c r="E183" s="8">
+        <v>5013.3999999999996</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -3728,9 +3949,15 @@
         <f t="shared" si="8"/>
         <v>182</v>
       </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
+      <c r="C184" s="8">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D184" s="8">
+        <v>5000.8</v>
+      </c>
+      <c r="E184" s="8">
+        <v>5000.8</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -3741,9 +3968,15 @@
         <f t="shared" si="8"/>
         <v>183</v>
       </c>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
+      <c r="C185" s="8">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D185" s="8">
+        <v>5001.3</v>
+      </c>
+      <c r="E185" s="8">
+        <v>5001.3</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -3754,9 +3987,15 @@
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
+      <c r="C186" s="8">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="D186" s="8">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="E186" s="8">
+        <v>4999.3999999999996</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -3767,9 +4006,15 @@
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
+      <c r="C187" s="8">
+        <v>5001</v>
+      </c>
+      <c r="D187" s="8">
+        <v>5001.2</v>
+      </c>
+      <c r="E187" s="8">
+        <v>5001.3</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -3780,9 +4025,15 @@
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
+      <c r="C188" s="8">
+        <v>4998.8</v>
+      </c>
+      <c r="D188" s="8">
+        <v>4998.8</v>
+      </c>
+      <c r="E188" s="8">
+        <v>4998.8</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -3793,9 +4044,15 @@
         <f t="shared" si="8"/>
         <v>187</v>
       </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
+      <c r="C189" s="8">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="D189" s="8">
+        <v>5003.8</v>
+      </c>
+      <c r="E189" s="8">
+        <v>5003.7</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -3806,9 +4063,15 @@
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="C190" s="8">
+        <v>5003.3</v>
+      </c>
+      <c r="D190" s="8">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="E190" s="8">
+        <v>5003.3999999999996</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -3819,9 +4082,15 @@
         <f t="shared" si="8"/>
         <v>189</v>
       </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
+      <c r="C191" s="8">
+        <v>4994.7</v>
+      </c>
+      <c r="D191" s="8">
+        <v>4995</v>
+      </c>
+      <c r="E191" s="8">
+        <v>4994.8</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -3832,9 +4101,15 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
+      <c r="C192" s="8">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D192" s="8">
+        <v>5002.3</v>
+      </c>
+      <c r="E192" s="8">
+        <v>5002.2</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -3845,9 +4120,15 @@
         <f t="shared" si="8"/>
         <v>191</v>
       </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="C193" s="8">
+        <v>5006.8999999999996</v>
+      </c>
+      <c r="D193" s="8">
+        <v>5006.8999999999996</v>
+      </c>
+      <c r="E193" s="8">
+        <v>5006.8999999999996</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -3858,9 +4139,15 @@
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
+      <c r="C194" s="8">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D194" s="8">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="E194" s="8">
+        <v>5000.8999999999996</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -3871,9 +4158,15 @@
         <f t="shared" si="8"/>
         <v>193</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
+      <c r="C195" s="8">
+        <v>5004</v>
+      </c>
+      <c r="D195" s="8">
+        <v>5004</v>
+      </c>
+      <c r="E195" s="8">
+        <v>5004</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -3884,9 +4177,15 @@
         <f t="shared" si="8"/>
         <v>194</v>
       </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
+      <c r="C196" s="8">
+        <v>5012.3999999999996</v>
+      </c>
+      <c r="D196" s="8">
+        <v>5012.3999999999996</v>
+      </c>
+      <c r="E196" s="8">
+        <v>5012.3999999999996</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -3897,9 +4196,15 @@
         <f t="shared" si="8"/>
         <v>195</v>
       </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
+      <c r="C197" s="8">
+        <v>5008.2</v>
+      </c>
+      <c r="D197" s="8">
+        <v>5008.1000000000004</v>
+      </c>
+      <c r="E197" s="8">
+        <v>5008.2</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -3910,9 +4215,15 @@
         <f t="shared" si="8"/>
         <v>196</v>
       </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
+      <c r="C198" s="8">
+        <v>4994.8</v>
+      </c>
+      <c r="D198" s="8">
+        <v>4994.8</v>
+      </c>
+      <c r="E198" s="8">
+        <v>4994.7</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -3923,9 +4234,15 @@
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
+      <c r="C199" s="8">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D199" s="8">
+        <v>4998.8</v>
+      </c>
+      <c r="E199" s="8">
+        <v>4998.6000000000004</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -3936,9 +4253,15 @@
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
+      <c r="C200" s="8">
+        <v>5003.5</v>
+      </c>
+      <c r="D200" s="8">
+        <v>5003.7</v>
+      </c>
+      <c r="E200" s="8">
+        <v>5003.6000000000004</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -3949,9 +4272,15 @@
         <f t="shared" si="8"/>
         <v>199</v>
       </c>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
+      <c r="C201" s="8">
+        <v>5003.2</v>
+      </c>
+      <c r="D201" s="8">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="E201" s="8">
+        <v>5003.6000000000004</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -3962,9 +4291,15 @@
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="C202" s="8"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
+      <c r="C202" s="8">
+        <v>5007</v>
+      </c>
+      <c r="D202" s="11">
+        <v>5007.1000000000004</v>
+      </c>
+      <c r="E202" s="11">
+        <v>5007</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -3975,9 +4310,15 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="C203" s="11"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
+      <c r="C203" s="10">
+        <v>4997.5</v>
+      </c>
+      <c r="D203" s="12">
+        <v>4997.5</v>
+      </c>
+      <c r="E203" s="12">
+        <v>4997.5</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -3988,9 +4329,15 @@
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
+      <c r="C204" s="10">
+        <v>5001.5</v>
+      </c>
+      <c r="D204" s="12">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E204" s="12">
+        <v>5001.5</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -4001,9 +4348,15 @@
         <f t="shared" si="8"/>
         <v>203</v>
       </c>
-      <c r="C205" s="11"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
+      <c r="C205" s="10">
+        <v>5000.5</v>
+      </c>
+      <c r="D205" s="12">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="E205" s="12">
+        <v>5000.3999999999996</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -4014,9 +4367,15 @@
         <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
+      <c r="C206" s="10">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="D206" s="12">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E206" s="12">
+        <v>5001.6000000000004</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -4027,9 +4386,15 @@
         <f t="shared" si="8"/>
         <v>205</v>
       </c>
-      <c r="C207" s="11"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
+      <c r="C207" s="10">
+        <v>5003.7</v>
+      </c>
+      <c r="D207" s="12">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="E207" s="12">
+        <v>5003.6000000000004</v>
+      </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -4040,9 +4405,15 @@
         <f t="shared" si="8"/>
         <v>206</v>
       </c>
-      <c r="C208" s="11"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
+      <c r="C208" s="10">
+        <v>5002.2</v>
+      </c>
+      <c r="D208" s="12">
+        <v>5002.3999999999996</v>
+      </c>
+      <c r="E208" s="12">
+        <v>5002.3</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -4053,9 +4424,15 @@
         <f t="shared" si="8"/>
         <v>207</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
+      <c r="C209" s="9">
+        <v>4999.3</v>
+      </c>
+      <c r="D209" s="12">
+        <v>4999.1000000000004</v>
+      </c>
+      <c r="E209" s="12">
+        <v>4999.1000000000004</v>
+      </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -4069,9 +4446,15 @@
         <f t="shared" si="8"/>
         <v>208</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
+      <c r="C210" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D210" s="12">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E210" s="12">
+        <v>4999.8999999999996</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -4082,9 +4465,15 @@
         <f t="shared" si="8"/>
         <v>209</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
+      <c r="C211" s="9">
+        <v>4998</v>
+      </c>
+      <c r="D211" s="12">
+        <v>4998</v>
+      </c>
+      <c r="E211" s="12">
+        <v>4998</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -4095,9 +4484,15 @@
         <f t="shared" ref="B212:B239" si="10">B211+1</f>
         <v>210</v>
       </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
+      <c r="C212" s="9">
+        <v>5007.3999999999996</v>
+      </c>
+      <c r="D212" s="12">
+        <v>5007.2</v>
+      </c>
+      <c r="E212" s="12">
+        <v>5007.1000000000004</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -4108,9 +4503,15 @@
         <f t="shared" si="10"/>
         <v>211</v>
       </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
+      <c r="C213" s="9">
+        <v>5005</v>
+      </c>
+      <c r="D213" s="12">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="E213" s="12">
+        <v>5004.8999999999996</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -4121,9 +4522,15 @@
         <f t="shared" si="10"/>
         <v>212</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
+      <c r="C214" s="9">
+        <v>4995.2</v>
+      </c>
+      <c r="D214" s="12">
+        <v>4995.2</v>
+      </c>
+      <c r="E214" s="12">
+        <v>4995.2</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -4134,9 +4541,15 @@
         <f t="shared" si="10"/>
         <v>213</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
+      <c r="C215" s="9">
+        <v>4994.7</v>
+      </c>
+      <c r="D215" s="12">
+        <v>4994.7</v>
+      </c>
+      <c r="E215" s="12">
+        <v>4997.6000000000004</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -4147,9 +4560,15 @@
         <f t="shared" si="10"/>
         <v>214</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
+      <c r="C216" s="9">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D216" s="12">
+        <v>5001.8</v>
+      </c>
+      <c r="E216" s="12">
+        <v>5001.8999999999996</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -4160,9 +4579,15 @@
         <f t="shared" si="10"/>
         <v>215</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
+      <c r="C217" s="9">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="D217" s="12">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E217" s="12">
+        <v>4999.8999999999996</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -4173,9 +4598,15 @@
         <f t="shared" si="10"/>
         <v>216</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
+      <c r="C218" s="9">
+        <v>5001.5</v>
+      </c>
+      <c r="D218" s="12">
+        <v>5001.3999999999996</v>
+      </c>
+      <c r="E218" s="12">
+        <v>5001.5</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -4186,9 +4617,15 @@
         <f t="shared" si="10"/>
         <v>217</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
+      <c r="C219" s="9">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D219" s="12">
+        <v>5001</v>
+      </c>
+      <c r="E219" s="12">
+        <v>5001</v>
+      </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -4202,9 +4639,15 @@
         <f t="shared" si="10"/>
         <v>218</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
+      <c r="C220" s="9">
+        <v>5003.2</v>
+      </c>
+      <c r="D220" s="12">
+        <v>5003.2</v>
+      </c>
+      <c r="E220" s="12">
+        <v>5003.3</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -4215,9 +4658,15 @@
         <f t="shared" si="10"/>
         <v>219</v>
       </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
+      <c r="C221" s="9">
+        <v>5000.2</v>
+      </c>
+      <c r="D221" s="12">
+        <v>5000.3</v>
+      </c>
+      <c r="E221" s="12">
+        <v>5000.3</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -4228,9 +4677,15 @@
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
+      <c r="C222" s="9">
+        <v>5003.2</v>
+      </c>
+      <c r="D222" s="12">
+        <v>5003.3</v>
+      </c>
+      <c r="E222" s="12">
+        <v>5003.2</v>
+      </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -4241,9 +4696,15 @@
         <f t="shared" si="10"/>
         <v>221</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
+      <c r="C223" s="9">
+        <v>5000.7</v>
+      </c>
+      <c r="D223" s="12">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="E223" s="12">
+        <v>5000.6000000000004</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -4254,9 +4715,15 @@
         <f t="shared" si="10"/>
         <v>222</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
+      <c r="C224" s="9">
+        <v>5011.7</v>
+      </c>
+      <c r="D224" s="12">
+        <v>5011.6000000000004</v>
+      </c>
+      <c r="E224" s="12">
+        <v>5011.7</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -4267,9 +4734,15 @@
         <f t="shared" si="10"/>
         <v>223</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
+      <c r="C225" s="9">
+        <v>5004.7</v>
+      </c>
+      <c r="D225" s="12">
+        <v>5004.8</v>
+      </c>
+      <c r="E225" s="12">
+        <v>5004.8</v>
+      </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -4280,9 +4753,15 @@
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
+      <c r="C226" s="9">
+        <v>4973.3999999999996</v>
+      </c>
+      <c r="D226" s="12">
+        <v>4973.3999999999996</v>
+      </c>
+      <c r="E226" s="12">
+        <v>4973.3999999999996</v>
+      </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -4293,9 +4772,15 @@
         <f t="shared" si="10"/>
         <v>225</v>
       </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
+      <c r="C227" s="9">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="D227" s="12">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="E227" s="12">
+        <v>5004.8999999999996</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -4306,9 +4791,15 @@
         <f t="shared" si="10"/>
         <v>226</v>
       </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
+      <c r="C228" s="9">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="D228" s="12">
+        <v>5000.3</v>
+      </c>
+      <c r="E228" s="12">
+        <v>5000.2</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -4319,9 +4810,15 @@
         <f t="shared" si="10"/>
         <v>227</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
+      <c r="C229" s="9">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="D229" s="12">
+        <v>5002</v>
+      </c>
+      <c r="E229" s="12">
+        <v>5002.1000000000004</v>
+      </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -4332,9 +4829,15 @@
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
+      <c r="C230" s="9">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="D230" s="12">
+        <v>5000.5</v>
+      </c>
+      <c r="E230" s="12">
+        <v>5000.5</v>
+      </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -4345,9 +4848,15 @@
         <f t="shared" si="10"/>
         <v>229</v>
       </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
+      <c r="C231" s="9">
+        <v>4993.2</v>
+      </c>
+      <c r="D231" s="12">
+        <v>4993.2</v>
+      </c>
+      <c r="E231" s="12">
+        <v>4993.2</v>
+      </c>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
@@ -4361,9 +4870,15 @@
         <f t="shared" si="10"/>
         <v>230</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
+      <c r="C232" s="9">
+        <v>5010.7</v>
+      </c>
+      <c r="D232" s="12">
+        <v>5010.7</v>
+      </c>
+      <c r="E232" s="12">
+        <v>5010.7</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -4374,9 +4889,15 @@
         <f t="shared" si="10"/>
         <v>231</v>
       </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
+      <c r="C233" s="9">
+        <v>5005.3999999999996</v>
+      </c>
+      <c r="D233" s="12">
+        <v>5005.3</v>
+      </c>
+      <c r="E233" s="12">
+        <v>5005.1000000000004</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -4387,9 +4908,15 @@
         <f t="shared" si="10"/>
         <v>232</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
+      <c r="C234" s="9">
+        <v>4997.7</v>
+      </c>
+      <c r="D234" s="12">
+        <v>4997.5</v>
+      </c>
+      <c r="E234" s="12">
+        <v>4997.5</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -4400,9 +4927,15 @@
         <f t="shared" si="10"/>
         <v>233</v>
       </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
+      <c r="C235" s="9">
+        <v>5008.2</v>
+      </c>
+      <c r="D235" s="12">
+        <v>5008.2</v>
+      </c>
+      <c r="E235" s="12">
+        <v>5008.2</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -4413,9 +4946,15 @@
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
+      <c r="C236" s="9">
+        <v>5001.7</v>
+      </c>
+      <c r="D236" s="12">
+        <v>5001.7</v>
+      </c>
+      <c r="E236" s="12">
+        <v>5001.7</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -4426,9 +4965,15 @@
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
+      <c r="C237" s="9">
+        <v>5000.3</v>
+      </c>
+      <c r="D237" s="12">
+        <v>5000.3</v>
+      </c>
+      <c r="E237" s="12">
+        <v>5000.3</v>
+      </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -4439,9 +4984,15 @@
         <f t="shared" si="10"/>
         <v>236</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
+      <c r="C238" s="9">
+        <v>4995.3999999999996</v>
+      </c>
+      <c r="D238" s="12">
+        <v>4995.5</v>
+      </c>
+      <c r="E238" s="12">
+        <v>4995.3</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -4452,9 +5003,15 @@
         <f t="shared" si="10"/>
         <v>237</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
+      <c r="C239" s="9">
+        <v>5006.8999999999996</v>
+      </c>
+      <c r="D239" s="12">
+        <v>5006.7</v>
+      </c>
+      <c r="E239" s="12">
+        <v>5007</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -4465,9 +5022,15 @@
         <f t="shared" si="11"/>
         <v>238</v>
       </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
+      <c r="C240" s="9">
+        <v>4996.7</v>
+      </c>
+      <c r="D240" s="12">
+        <v>4996.8</v>
+      </c>
+      <c r="E240" s="12">
+        <v>4996.8999999999996</v>
+      </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -4478,9 +5041,15 @@
         <f t="shared" si="11"/>
         <v>239</v>
       </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
+      <c r="C241" s="9">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="D241" s="12">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="E241" s="12">
+        <v>4998.3999999999996</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -4491,9 +5060,15 @@
         <f t="shared" si="11"/>
         <v>240</v>
       </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
+      <c r="C242" s="9">
+        <v>4998.5</v>
+      </c>
+      <c r="D242" s="12">
+        <v>4998.5</v>
+      </c>
+      <c r="E242" s="12">
+        <v>4998.5</v>
+      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -4504,9 +5079,15 @@
         <f t="shared" si="11"/>
         <v>241</v>
       </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
+      <c r="C243" s="9">
+        <v>5005.8</v>
+      </c>
+      <c r="D243" s="12">
+        <v>5006</v>
+      </c>
+      <c r="E243" s="12">
+        <v>5006</v>
+      </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -4517,9 +5098,15 @@
         <f t="shared" si="11"/>
         <v>242</v>
       </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
+      <c r="C244" s="9">
+        <v>4997.3</v>
+      </c>
+      <c r="D244" s="12">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="E244" s="12">
+        <v>4997.3</v>
+      </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -4530,9 +5117,15 @@
         <f t="shared" si="11"/>
         <v>243</v>
       </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
+      <c r="C245" s="9">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="D245" s="12">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="E245" s="12">
+        <v>4997.8999999999996</v>
+      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -4543,9 +5136,15 @@
         <f t="shared" ref="B246:B277" si="13">B245+1</f>
         <v>244</v>
       </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
+      <c r="C246" s="9">
+        <v>5002.8</v>
+      </c>
+      <c r="D246" s="12">
+        <v>5002.8</v>
+      </c>
+      <c r="E246" s="12">
+        <v>5002.8</v>
+      </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -4556,9 +5155,15 @@
         <f t="shared" si="13"/>
         <v>245</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
+      <c r="C247" s="9">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="D247" s="12">
+        <v>5004.8</v>
+      </c>
+      <c r="E247" s="12">
+        <v>5004.8999999999996</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -4569,9 +5174,15 @@
         <f t="shared" si="13"/>
         <v>246</v>
       </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
+      <c r="C248" s="9">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="D248" s="12">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="E248" s="12">
+        <v>5003.3999999999996</v>
+      </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -4582,9 +5193,15 @@
         <f t="shared" si="13"/>
         <v>247</v>
       </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
+      <c r="C249" s="9">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D249" s="12">
+        <v>5000.3</v>
+      </c>
+      <c r="E249" s="12">
+        <v>5000.2</v>
+      </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -4595,9 +5212,15 @@
         <f t="shared" si="13"/>
         <v>248</v>
       </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
+      <c r="C250" s="9">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="D250" s="12">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="E250" s="12">
+        <v>4999.6000000000004</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -4608,9 +5231,15 @@
         <f t="shared" si="13"/>
         <v>249</v>
       </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
+      <c r="C251" s="9">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="D251" s="12">
+        <v>4996.8999999999996</v>
+      </c>
+      <c r="E251" s="12">
+        <v>4996.8999999999996</v>
+      </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -4621,9 +5250,15 @@
         <f t="shared" si="13"/>
         <v>250</v>
       </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
+      <c r="C252" s="9">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="D252" s="12">
+        <v>4998.7</v>
+      </c>
+      <c r="E252" s="12">
+        <v>4998.7</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -4634,9 +5269,15 @@
         <f t="shared" si="13"/>
         <v>251</v>
       </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
+      <c r="C253" s="9">
+        <v>5004.7</v>
+      </c>
+      <c r="D253" s="12">
+        <v>5004.8</v>
+      </c>
+      <c r="E253" s="12">
+        <v>5004.8</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -4647,9 +5288,15 @@
         <f t="shared" si="13"/>
         <v>252</v>
       </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
+      <c r="C254" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D254" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E254" s="12">
+        <v>5000</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -4660,9 +5307,15 @@
         <f t="shared" si="13"/>
         <v>253</v>
       </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
+      <c r="C255" s="9">
+        <v>4999.2</v>
+      </c>
+      <c r="D255" s="12">
+        <v>4999.1000000000004</v>
+      </c>
+      <c r="E255" s="12">
+        <v>4999.2</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -4673,9 +5326,15 @@
         <f t="shared" si="13"/>
         <v>254</v>
       </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
+      <c r="C256" s="9">
+        <v>5000.7</v>
+      </c>
+      <c r="D256" s="12">
+        <v>5000.8</v>
+      </c>
+      <c r="E256" s="12">
+        <v>5000.6000000000004</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -4686,9 +5345,15 @@
         <f t="shared" si="13"/>
         <v>255</v>
       </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
+      <c r="C257" s="9">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="D257" s="12">
+        <v>5003</v>
+      </c>
+      <c r="E257" s="12">
+        <v>5003</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -4699,9 +5364,15 @@
         <f t="shared" si="13"/>
         <v>256</v>
       </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="13"/>
+      <c r="C258" s="9">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D258" s="12">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E258" s="12">
+        <v>4999.8999999999996</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -4712,9 +5383,15 @@
         <f t="shared" si="13"/>
         <v>257</v>
       </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="13"/>
+      <c r="C259" s="9">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="D259" s="12">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E259" s="12">
+        <v>5003</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
@@ -4725,9 +5402,15 @@
         <f t="shared" si="13"/>
         <v>258</v>
       </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="13"/>
-      <c r="E260" s="13"/>
+      <c r="C260" s="9">
+        <v>5001.8</v>
+      </c>
+      <c r="D260" s="12">
+        <v>5002.2</v>
+      </c>
+      <c r="E260" s="12">
+        <v>5001.8999999999996</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
@@ -4738,9 +5421,15 @@
         <f t="shared" si="13"/>
         <v>259</v>
       </c>
-      <c r="C261" s="9"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
+      <c r="C261" s="9">
+        <v>5001.3999999999996</v>
+      </c>
+      <c r="D261" s="12">
+        <v>5001.3999999999996</v>
+      </c>
+      <c r="E261" s="12">
+        <v>5001.3999999999996</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -4751,9 +5440,15 @@
         <f t="shared" si="13"/>
         <v>260</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
+      <c r="C262" s="9">
+        <v>4994</v>
+      </c>
+      <c r="D262" s="12">
+        <v>4994</v>
+      </c>
+      <c r="E262" s="12">
+        <v>4994</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -4764,9 +5459,15 @@
         <f t="shared" si="13"/>
         <v>261</v>
       </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
+      <c r="C263" s="9">
+        <v>4999.2</v>
+      </c>
+      <c r="D263" s="12">
+        <v>4999.3</v>
+      </c>
+      <c r="E263" s="12">
+        <v>4999.1000000000004</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -4777,9 +5478,15 @@
         <f t="shared" si="13"/>
         <v>262</v>
       </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="13"/>
-      <c r="E264" s="13"/>
+      <c r="C264" s="9">
+        <v>5000.7</v>
+      </c>
+      <c r="D264" s="12">
+        <v>5000.8</v>
+      </c>
+      <c r="E264" s="12">
+        <v>5000.7</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -4790,9 +5497,15 @@
         <f t="shared" si="13"/>
         <v>263</v>
       </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
+      <c r="C265" s="9">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="D265" s="12">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="E265" s="12">
+        <v>4995.1000000000004</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -4803,9 +5516,15 @@
         <f t="shared" si="13"/>
         <v>264</v>
       </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
+      <c r="C266" s="9">
+        <v>4999.7</v>
+      </c>
+      <c r="D266" s="12">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="E266" s="12">
+        <v>4999.5</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -4816,9 +5535,15 @@
         <f t="shared" si="13"/>
         <v>265</v>
       </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
+      <c r="C267" s="9">
+        <v>5000.7</v>
+      </c>
+      <c r="D267" s="12">
+        <v>5000.7</v>
+      </c>
+      <c r="E267" s="12">
+        <v>5000.7</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -4829,9 +5554,15 @@
         <f t="shared" si="13"/>
         <v>266</v>
       </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
+      <c r="C268" s="9">
+        <v>4996.3</v>
+      </c>
+      <c r="D268" s="12">
+        <v>4996.2</v>
+      </c>
+      <c r="E268" s="12">
+        <v>4996.2</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -4842,9 +5573,15 @@
         <f t="shared" si="13"/>
         <v>267</v>
       </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
+      <c r="C269" s="9">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="D269" s="12">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="E269" s="12">
+        <v>4997.1000000000004</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -4855,9 +5592,15 @@
         <f t="shared" si="13"/>
         <v>268</v>
       </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="13"/>
+      <c r="C270" s="9">
+        <v>5005.6000000000004</v>
+      </c>
+      <c r="D270" s="12">
+        <v>5005.6000000000004</v>
+      </c>
+      <c r="E270" s="12">
+        <v>5005.6000000000004</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -4868,9 +5611,15 @@
         <f t="shared" si="13"/>
         <v>269</v>
       </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
+      <c r="C271" s="9">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D271" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E271" s="12">
+        <v>5000</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -4881,9 +5630,15 @@
         <f t="shared" si="13"/>
         <v>270</v>
       </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="13"/>
+      <c r="C272" s="9">
+        <v>4998</v>
+      </c>
+      <c r="D272" s="12">
+        <v>4997.8</v>
+      </c>
+      <c r="E272" s="12">
+        <v>4998</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
@@ -4894,9 +5649,15 @@
         <f t="shared" si="13"/>
         <v>271</v>
       </c>
-      <c r="C273" s="9"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
+      <c r="C273" s="9">
+        <v>5003</v>
+      </c>
+      <c r="D273" s="12">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="E273" s="12">
+        <v>5003</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
@@ -4907,9 +5668,15 @@
         <f t="shared" si="13"/>
         <v>272</v>
       </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="13"/>
+      <c r="C274" s="9">
+        <v>4999</v>
+      </c>
+      <c r="D274" s="12">
+        <v>4999</v>
+      </c>
+      <c r="E274" s="12">
+        <v>4999</v>
+      </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
@@ -4920,9 +5687,15 @@
         <f t="shared" si="13"/>
         <v>273</v>
       </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
+      <c r="C275" s="9">
+        <v>4999.2</v>
+      </c>
+      <c r="D275" s="12">
+        <v>4999.2</v>
+      </c>
+      <c r="E275" s="12">
+        <v>4999.2</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -4933,9 +5706,15 @@
         <f t="shared" si="13"/>
         <v>274</v>
       </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="13"/>
+      <c r="C276" s="9">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="D276" s="12">
+        <v>4998.2</v>
+      </c>
+      <c r="E276" s="12">
+        <v>4998.3</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -4946,9 +5725,15 @@
         <f t="shared" si="13"/>
         <v>275</v>
       </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
+      <c r="C277" s="9">
+        <v>4998</v>
+      </c>
+      <c r="D277" s="12">
+        <v>4998</v>
+      </c>
+      <c r="E277" s="12">
+        <v>4998</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -4959,9 +5744,15 @@
         <f t="shared" ref="B278:B309" si="15">B277+1</f>
         <v>276</v>
       </c>
-      <c r="C278" s="9"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
+      <c r="C278" s="9">
+        <v>5001.5</v>
+      </c>
+      <c r="D278" s="12">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E278" s="12">
+        <v>5001.6000000000004</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -4972,9 +5763,15 @@
         <f t="shared" si="15"/>
         <v>277</v>
       </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
+      <c r="C279" s="9">
+        <v>5004</v>
+      </c>
+      <c r="D279" s="12">
+        <v>5004</v>
+      </c>
+      <c r="E279" s="12">
+        <v>5004</v>
+      </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -4985,9 +5782,15 @@
         <f t="shared" si="15"/>
         <v>278</v>
       </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="13"/>
-      <c r="E280" s="13"/>
+      <c r="C280" s="9">
+        <v>5004.3999999999996</v>
+      </c>
+      <c r="D280" s="12">
+        <v>5004.5</v>
+      </c>
+      <c r="E280" s="12">
+        <v>5004.6000000000004</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -4998,9 +5801,15 @@
         <f t="shared" si="15"/>
         <v>279</v>
       </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
+      <c r="C281" s="9">
+        <v>5002.2</v>
+      </c>
+      <c r="D281" s="12">
+        <v>5002.2</v>
+      </c>
+      <c r="E281" s="12">
+        <v>5002.2</v>
+      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -5011,9 +5820,15 @@
         <f t="shared" si="15"/>
         <v>280</v>
       </c>
-      <c r="C282" s="9"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
+      <c r="C282" s="9">
+        <v>4996.2</v>
+      </c>
+      <c r="D282" s="12">
+        <v>4996.2</v>
+      </c>
+      <c r="E282" s="12">
+        <v>4996.2</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -5024,9 +5839,15 @@
         <f t="shared" si="15"/>
         <v>281</v>
       </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
+      <c r="C283" s="9">
+        <v>4994.3</v>
+      </c>
+      <c r="D283" s="12">
+        <v>4994.3999999999996</v>
+      </c>
+      <c r="E283" s="12">
+        <v>4994.3999999999996</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -5037,9 +5858,15 @@
         <f t="shared" si="15"/>
         <v>282</v>
       </c>
-      <c r="C284" s="9"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="13"/>
+      <c r="C284" s="9">
+        <v>5005</v>
+      </c>
+      <c r="D284" s="12">
+        <v>5005.3</v>
+      </c>
+      <c r="E284" s="12">
+        <v>5005.3</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -5050,9 +5877,15 @@
         <f t="shared" si="15"/>
         <v>283</v>
       </c>
-      <c r="C285" s="9"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
+      <c r="C285" s="9">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="D285" s="12">
+        <v>4999.6000000000004</v>
+      </c>
+      <c r="E285" s="12">
+        <v>4999.6000000000004</v>
+      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -5063,9 +5896,15 @@
         <f t="shared" si="15"/>
         <v>284</v>
       </c>
-      <c r="C286" s="9"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="13"/>
+      <c r="C286" s="9">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="D286" s="12">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="E286" s="12">
+        <v>5000.6000000000004</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -5076,9 +5915,15 @@
         <f t="shared" si="15"/>
         <v>285</v>
       </c>
-      <c r="C287" s="9"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
+      <c r="C287" s="9">
+        <v>5005.6000000000004</v>
+      </c>
+      <c r="D287" s="12">
+        <v>5005.3999999999996</v>
+      </c>
+      <c r="E287" s="12">
+        <v>5005.8</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -5089,9 +5934,15 @@
         <f t="shared" si="15"/>
         <v>286</v>
       </c>
-      <c r="C288" s="9"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
+      <c r="C288" s="9">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="D288" s="12">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="E288" s="12">
+        <v>4995.1000000000004</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
@@ -5102,9 +5953,15 @@
         <f t="shared" si="15"/>
         <v>287</v>
       </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
+      <c r="C289" s="9">
+        <v>4995.3999999999996</v>
+      </c>
+      <c r="D289" s="12">
+        <v>4995.3999999999996</v>
+      </c>
+      <c r="E289" s="12">
+        <v>4995.3999999999996</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -5115,9 +5972,15 @@
         <f t="shared" si="15"/>
         <v>288</v>
       </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
+      <c r="C290" s="9">
+        <v>4999</v>
+      </c>
+      <c r="D290" s="12">
+        <v>4999.2</v>
+      </c>
+      <c r="E290" s="12">
+        <v>4999.2</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
@@ -5128,9 +5991,15 @@
         <f t="shared" si="15"/>
         <v>289</v>
       </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
+      <c r="C291" s="9">
+        <v>5007.5</v>
+      </c>
+      <c r="D291" s="12">
+        <v>5007.3999999999996</v>
+      </c>
+      <c r="E291" s="12">
+        <v>5007.5</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
@@ -5141,9 +6010,15 @@
         <f t="shared" si="15"/>
         <v>290</v>
       </c>
-      <c r="C292" s="9"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="13"/>
+      <c r="C292" s="9">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="D292" s="12">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="E292" s="12">
+        <v>4999.3999999999996</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
@@ -5154,9 +6029,15 @@
         <f t="shared" si="15"/>
         <v>291</v>
       </c>
-      <c r="C293" s="9"/>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
+      <c r="C293" s="9">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="D293" s="12">
+        <v>5004.3</v>
+      </c>
+      <c r="E293" s="12">
+        <v>5004.3999999999996</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
@@ -5167,9 +6048,15 @@
         <f t="shared" si="15"/>
         <v>292</v>
       </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="13"/>
+      <c r="C294" s="9">
+        <v>5002.7</v>
+      </c>
+      <c r="D294" s="12">
+        <v>5002.8</v>
+      </c>
+      <c r="E294" s="12">
+        <v>5002.8</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
@@ -5180,9 +6067,15 @@
         <f t="shared" si="15"/>
         <v>293</v>
       </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
+      <c r="C295" s="9">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D295" s="12">
+        <v>5001.8</v>
+      </c>
+      <c r="E295" s="12">
+        <v>5001.8999999999996</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
@@ -5193,9 +6086,15 @@
         <f t="shared" si="15"/>
         <v>294</v>
       </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
+      <c r="C296" s="9">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D296" s="12">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E296" s="12">
+        <v>5000</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
@@ -5206,9 +6105,15 @@
         <f t="shared" si="15"/>
         <v>295</v>
       </c>
-      <c r="C297" s="9"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
+      <c r="C297" s="9">
+        <v>5004.3999999999996</v>
+      </c>
+      <c r="D297" s="12">
+        <v>5004.3</v>
+      </c>
+      <c r="E297" s="12">
+        <v>5004.3</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
@@ -5219,9 +6124,15 @@
         <f t="shared" si="15"/>
         <v>296</v>
       </c>
-      <c r="C298" s="9"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
+      <c r="C298" s="9">
+        <v>5007.1000000000004</v>
+      </c>
+      <c r="D298" s="12">
+        <v>5007.3</v>
+      </c>
+      <c r="E298" s="12">
+        <v>5007.3999999999996</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
@@ -5232,9 +6143,15 @@
         <f t="shared" si="15"/>
         <v>297</v>
       </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
+      <c r="C299" s="9">
+        <v>4998</v>
+      </c>
+      <c r="D299" s="12">
+        <v>4998.2</v>
+      </c>
+      <c r="E299" s="12">
+        <v>4998.1000000000004</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -5245,9 +6162,15 @@
         <f t="shared" si="15"/>
         <v>298</v>
       </c>
-      <c r="C300" s="9"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="13"/>
+      <c r="C300" s="9">
+        <v>4993.8999999999996</v>
+      </c>
+      <c r="D300" s="12">
+        <v>4994.1000000000004</v>
+      </c>
+      <c r="E300" s="12">
+        <v>4994</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
@@ -5258,9 +6181,15 @@
         <f t="shared" si="15"/>
         <v>299</v>
       </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
+      <c r="C301" s="9">
+        <v>5005.8999999999996</v>
+      </c>
+      <c r="D301" s="12">
+        <v>5005.8999999999996</v>
+      </c>
+      <c r="E301" s="12">
+        <v>5005.8999999999996</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
@@ -5271,9 +6200,15 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="13"/>
-      <c r="E302" s="13"/>
+      <c r="C302" s="9">
+        <v>5000.5</v>
+      </c>
+      <c r="D302" s="12">
+        <v>5000.5</v>
+      </c>
+      <c r="E302" s="12">
+        <v>5000.5</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
@@ -5284,9 +6219,15 @@
         <f t="shared" si="15"/>
         <v>301</v>
       </c>
-      <c r="C303" s="9"/>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
+      <c r="C303" s="9">
+        <v>5003</v>
+      </c>
+      <c r="D303" s="12">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="E303" s="12">
+        <v>5002.8999999999996</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -5297,9 +6238,15 @@
         <f t="shared" si="15"/>
         <v>302</v>
       </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="13"/>
-      <c r="E304" s="13"/>
+      <c r="C304" s="9">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="D304" s="12">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="E304" s="12">
+        <v>4997.6000000000004</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -5310,9 +6257,15 @@
         <f t="shared" si="15"/>
         <v>303</v>
       </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="13"/>
-      <c r="E305" s="13"/>
+      <c r="C305" s="9">
+        <v>5008.5</v>
+      </c>
+      <c r="D305" s="12">
+        <v>5008.5</v>
+      </c>
+      <c r="E305" s="12">
+        <v>5008.5</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
@@ -5323,9 +6276,15 @@
         <f t="shared" si="15"/>
         <v>304</v>
       </c>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="10"/>
+      <c r="C306" s="13">
+        <v>4995.5</v>
+      </c>
+      <c r="D306" s="13">
+        <v>4994.3999999999996</v>
+      </c>
+      <c r="E306" s="13">
+        <v>4005.4</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
@@ -5336,9 +6295,15 @@
         <f t="shared" si="15"/>
         <v>305</v>
       </c>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="10"/>
+      <c r="C307" s="13">
+        <v>5004.8</v>
+      </c>
+      <c r="D307" s="13">
+        <v>5004.7</v>
+      </c>
+      <c r="E307" s="13">
+        <v>5004.8</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
@@ -5349,9 +6314,15 @@
         <f t="shared" si="15"/>
         <v>306</v>
       </c>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="10"/>
+      <c r="C308" s="13">
+        <v>4993.3999999999996</v>
+      </c>
+      <c r="D308" s="13">
+        <v>4993.3</v>
+      </c>
+      <c r="E308" s="13">
+        <v>4993.3999999999996</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -5362,22 +6333,34 @@
         <f t="shared" si="15"/>
         <v>307</v>
       </c>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
+      <c r="C309" s="13">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="D309" s="13">
+        <v>4999.3</v>
+      </c>
+      <c r="E309" s="13">
+        <v>4999.3</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f t="shared" ref="A310:A320" si="16">A309+1</f>
+        <f t="shared" ref="A310:A373" si="16">A309+1</f>
         <v>308</v>
       </c>
       <c r="B310" s="3">
-        <f t="shared" ref="B310:B320" si="17">B309+1</f>
+        <f t="shared" ref="B310:B373" si="17">B309+1</f>
         <v>308</v>
       </c>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="10"/>
+      <c r="C310" s="13">
+        <v>5001.5</v>
+      </c>
+      <c r="D310" s="13">
+        <v>5001.7</v>
+      </c>
+      <c r="E310" s="13">
+        <v>5001.7</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -5388,9 +6371,15 @@
         <f t="shared" si="17"/>
         <v>309</v>
       </c>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
-      <c r="E311" s="10"/>
+      <c r="C311" s="13">
+        <v>4999.3</v>
+      </c>
+      <c r="D311" s="13">
+        <v>4999.3</v>
+      </c>
+      <c r="E311" s="13">
+        <v>4999.3</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -5401,9 +6390,15 @@
         <f t="shared" si="17"/>
         <v>310</v>
       </c>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="10"/>
+      <c r="C312" s="13">
+        <v>5002</v>
+      </c>
+      <c r="D312" s="13">
+        <v>5002</v>
+      </c>
+      <c r="E312" s="13">
+        <v>5002</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -5414,9 +6409,15 @@
         <f t="shared" si="17"/>
         <v>311</v>
       </c>
-      <c r="C313" s="10"/>
-      <c r="D313" s="10"/>
-      <c r="E313" s="10"/>
+      <c r="C313" s="13">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="D313" s="13">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E313" s="13">
+        <v>4999.8999999999996</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -5427,9 +6428,15 @@
         <f t="shared" si="17"/>
         <v>312</v>
       </c>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
+      <c r="C314" s="13">
+        <v>5001.5</v>
+      </c>
+      <c r="D314" s="13">
+        <v>5001.5</v>
+      </c>
+      <c r="E314" s="13">
+        <v>5001.5</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
@@ -5440,9 +6447,15 @@
         <f t="shared" si="17"/>
         <v>313</v>
       </c>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
+      <c r="C315" s="13">
+        <v>5005.7</v>
+      </c>
+      <c r="D315" s="13">
+        <v>5005.6000000000004</v>
+      </c>
+      <c r="E315" s="13">
+        <v>5005.6000000000004</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
@@ -5453,9 +6466,15 @@
         <f t="shared" si="17"/>
         <v>314</v>
       </c>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
+      <c r="C316" s="13">
+        <v>4999.5</v>
+      </c>
+      <c r="D316" s="13">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="E316" s="13">
+        <v>4999.5</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
@@ -5466,9 +6485,15 @@
         <f t="shared" si="17"/>
         <v>315</v>
       </c>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
+      <c r="C317" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D317" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E317" s="13">
+        <v>5000</v>
+      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
@@ -5479,9 +6504,15 @@
         <f t="shared" si="17"/>
         <v>316</v>
       </c>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="10"/>
+      <c r="C318" s="13">
+        <v>5012.5</v>
+      </c>
+      <c r="D318" s="13">
+        <v>5012.6000000000004</v>
+      </c>
+      <c r="E318" s="13">
+        <v>5012.6000000000004</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -5492,9 +6523,15 @@
         <f t="shared" si="17"/>
         <v>317</v>
       </c>
-      <c r="C319" s="10"/>
-      <c r="D319" s="10"/>
-      <c r="E319" s="10"/>
+      <c r="C319" s="13">
+        <v>5004.3</v>
+      </c>
+      <c r="D319" s="13">
+        <v>5004.2</v>
+      </c>
+      <c r="E319" s="13">
+        <v>5004.1000000000004</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -5505,24 +6542,3418 @@
         <f t="shared" si="17"/>
         <v>318</v>
       </c>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="10"/>
-    </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C321" s="10"/>
-      <c r="D321" s="10"/>
-      <c r="E321" s="10"/>
-    </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C322" s="10"/>
-      <c r="D322" s="10"/>
-      <c r="E322" s="10"/>
-    </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C323" s="10"/>
-      <c r="D323" s="10"/>
-      <c r="E323" s="10"/>
+      <c r="C320" s="13">
+        <v>4996</v>
+      </c>
+      <c r="D320" s="13">
+        <v>4996.2</v>
+      </c>
+      <c r="E320" s="13">
+        <v>4996.1000000000004</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f t="shared" si="16"/>
+        <v>319</v>
+      </c>
+      <c r="B321" s="3">
+        <f t="shared" si="17"/>
+        <v>319</v>
+      </c>
+      <c r="C321" s="13">
+        <v>5006.1000000000004</v>
+      </c>
+      <c r="D321" s="13">
+        <v>5006.1000000000004</v>
+      </c>
+      <c r="E321" s="13">
+        <v>5006.1000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f t="shared" si="16"/>
+        <v>320</v>
+      </c>
+      <c r="B322" s="3">
+        <f t="shared" si="17"/>
+        <v>320</v>
+      </c>
+      <c r="C322" s="13">
+        <v>4998.7</v>
+      </c>
+      <c r="D322" s="13">
+        <v>4998.7</v>
+      </c>
+      <c r="E322" s="13">
+        <v>4998.7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f t="shared" si="16"/>
+        <v>321</v>
+      </c>
+      <c r="B323" s="3">
+        <f t="shared" si="17"/>
+        <v>321</v>
+      </c>
+      <c r="C323" s="13">
+        <v>4994.3999999999996</v>
+      </c>
+      <c r="D323" s="13">
+        <v>4994.3999999999996</v>
+      </c>
+      <c r="E323" s="13">
+        <v>4994.3999999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f t="shared" si="16"/>
+        <v>322</v>
+      </c>
+      <c r="B324" s="3">
+        <f t="shared" si="17"/>
+        <v>322</v>
+      </c>
+      <c r="C324" s="14">
+        <v>4994.5</v>
+      </c>
+      <c r="D324" s="14">
+        <v>4994.5</v>
+      </c>
+      <c r="E324" s="14">
+        <v>4994.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f t="shared" si="16"/>
+        <v>323</v>
+      </c>
+      <c r="B325" s="3">
+        <f t="shared" si="17"/>
+        <v>323</v>
+      </c>
+      <c r="C325" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D325" s="14">
+        <v>4998.7</v>
+      </c>
+      <c r="E325" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f t="shared" si="16"/>
+        <v>324</v>
+      </c>
+      <c r="B326" s="3">
+        <f t="shared" si="17"/>
+        <v>324</v>
+      </c>
+      <c r="C326" s="14">
+        <v>5003.8999999999996</v>
+      </c>
+      <c r="D326" s="14">
+        <v>5003.8</v>
+      </c>
+      <c r="E326" s="14">
+        <v>5003.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f t="shared" si="16"/>
+        <v>325</v>
+      </c>
+      <c r="B327" s="3">
+        <f t="shared" si="17"/>
+        <v>325</v>
+      </c>
+      <c r="C327" s="14">
+        <v>4994.2</v>
+      </c>
+      <c r="D327" s="14">
+        <v>4994.3</v>
+      </c>
+      <c r="E327" s="14">
+        <v>4994.3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f t="shared" si="16"/>
+        <v>326</v>
+      </c>
+      <c r="B328" s="3">
+        <f t="shared" si="17"/>
+        <v>326</v>
+      </c>
+      <c r="C328" s="13">
+        <v>4993</v>
+      </c>
+      <c r="D328" s="13">
+        <v>4993</v>
+      </c>
+      <c r="E328" s="13">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f t="shared" si="16"/>
+        <v>327</v>
+      </c>
+      <c r="B329" s="3">
+        <f t="shared" si="17"/>
+        <v>327</v>
+      </c>
+      <c r="C329" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="D329" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="E329" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f t="shared" si="16"/>
+        <v>328</v>
+      </c>
+      <c r="B330" s="3">
+        <f t="shared" si="17"/>
+        <v>328</v>
+      </c>
+      <c r="C330" s="14">
+        <v>5000.7</v>
+      </c>
+      <c r="D330" s="14">
+        <v>5000.8</v>
+      </c>
+      <c r="E330" s="14">
+        <v>5000.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f t="shared" si="16"/>
+        <v>329</v>
+      </c>
+      <c r="B331" s="3">
+        <f t="shared" si="17"/>
+        <v>329</v>
+      </c>
+      <c r="C331" s="14">
+        <v>4998.2</v>
+      </c>
+      <c r="D331" s="14">
+        <v>4998.3</v>
+      </c>
+      <c r="E331" s="14">
+        <v>4998.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f t="shared" si="16"/>
+        <v>330</v>
+      </c>
+      <c r="B332" s="3">
+        <f t="shared" si="17"/>
+        <v>330</v>
+      </c>
+      <c r="C332" s="14">
+        <v>5006.2</v>
+      </c>
+      <c r="D332" s="14">
+        <v>5006.1000000000004</v>
+      </c>
+      <c r="E332" s="14">
+        <v>5006.2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f t="shared" si="16"/>
+        <v>331</v>
+      </c>
+      <c r="B333" s="3">
+        <f t="shared" si="17"/>
+        <v>331</v>
+      </c>
+      <c r="C333" s="14">
+        <v>4999.8</v>
+      </c>
+      <c r="D333" s="14">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E333" s="14">
+        <v>4999.8999999999996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f t="shared" si="16"/>
+        <v>332</v>
+      </c>
+      <c r="B334" s="3">
+        <f t="shared" si="17"/>
+        <v>332</v>
+      </c>
+      <c r="C334" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="D334" s="14">
+        <v>4997.3</v>
+      </c>
+      <c r="E334" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f t="shared" si="16"/>
+        <v>333</v>
+      </c>
+      <c r="B335" s="3">
+        <f t="shared" si="17"/>
+        <v>333</v>
+      </c>
+      <c r="C335" s="14">
+        <v>4999.3</v>
+      </c>
+      <c r="D335" s="14">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="E335" s="14">
+        <v>4999.1000000000004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f t="shared" si="16"/>
+        <v>334</v>
+      </c>
+      <c r="B336" s="3">
+        <f t="shared" si="17"/>
+        <v>334</v>
+      </c>
+      <c r="C336" s="14">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D336" s="14">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="E336" s="14">
+        <v>5000.1000000000004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f t="shared" si="16"/>
+        <v>335</v>
+      </c>
+      <c r="B337" s="3">
+        <f t="shared" si="17"/>
+        <v>335</v>
+      </c>
+      <c r="C337" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="D337" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="E337" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="16"/>
+        <v>336</v>
+      </c>
+      <c r="B338" s="3">
+        <f t="shared" si="17"/>
+        <v>336</v>
+      </c>
+      <c r="C338" s="14">
+        <v>4997.2</v>
+      </c>
+      <c r="D338" s="13">
+        <v>4997</v>
+      </c>
+      <c r="E338" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="16"/>
+        <v>337</v>
+      </c>
+      <c r="B339" s="3">
+        <f t="shared" si="17"/>
+        <v>337</v>
+      </c>
+      <c r="C339" s="14">
+        <v>5007.8999999999996</v>
+      </c>
+      <c r="D339" s="14">
+        <v>5007.8999999999996</v>
+      </c>
+      <c r="E339" s="14">
+        <v>5007.8999999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f t="shared" si="16"/>
+        <v>338</v>
+      </c>
+      <c r="B340" s="3">
+        <f t="shared" si="17"/>
+        <v>338</v>
+      </c>
+      <c r="C340" s="14">
+        <v>4994.1000000000004</v>
+      </c>
+      <c r="D340" s="13">
+        <v>4994</v>
+      </c>
+      <c r="E340" s="13">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f t="shared" si="16"/>
+        <v>339</v>
+      </c>
+      <c r="B341" s="3">
+        <f t="shared" si="17"/>
+        <v>339</v>
+      </c>
+      <c r="C341" s="14">
+        <v>5000.1000000000004</v>
+      </c>
+      <c r="D341" s="14">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="E341" s="14">
+        <v>4999.8999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f t="shared" si="16"/>
+        <v>340</v>
+      </c>
+      <c r="B342" s="3">
+        <f t="shared" si="17"/>
+        <v>340</v>
+      </c>
+      <c r="C342" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="D342" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+      <c r="E342" s="14">
+        <v>5002.1000000000004</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f t="shared" si="16"/>
+        <v>341</v>
+      </c>
+      <c r="B343" s="3">
+        <f t="shared" si="17"/>
+        <v>341</v>
+      </c>
+      <c r="C343" s="14">
+        <v>5001.8</v>
+      </c>
+      <c r="D343" s="14">
+        <v>5001.8</v>
+      </c>
+      <c r="E343" s="14">
+        <v>5001.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f t="shared" si="16"/>
+        <v>342</v>
+      </c>
+      <c r="B344" s="3">
+        <f t="shared" si="17"/>
+        <v>342</v>
+      </c>
+      <c r="C344" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="D344" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="E344" s="14">
+        <v>5004.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f t="shared" si="16"/>
+        <v>343</v>
+      </c>
+      <c r="B345" s="3">
+        <f t="shared" si="17"/>
+        <v>343</v>
+      </c>
+      <c r="C345" s="14">
+        <v>5001.2</v>
+      </c>
+      <c r="D345" s="14">
+        <v>5001.2</v>
+      </c>
+      <c r="E345" s="14">
+        <v>5001.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f t="shared" si="16"/>
+        <v>344</v>
+      </c>
+      <c r="B346" s="3">
+        <f t="shared" si="17"/>
+        <v>344</v>
+      </c>
+      <c r="C346" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D346" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="E346" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="16"/>
+        <v>345</v>
+      </c>
+      <c r="B347" s="3">
+        <f t="shared" si="17"/>
+        <v>345</v>
+      </c>
+      <c r="C347" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="D347" s="14">
+        <v>5003.5</v>
+      </c>
+      <c r="E347" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f t="shared" si="16"/>
+        <v>346</v>
+      </c>
+      <c r="B348" s="3">
+        <f t="shared" si="17"/>
+        <v>346</v>
+      </c>
+      <c r="C348" s="14">
+        <v>4995.8</v>
+      </c>
+      <c r="D348" s="14">
+        <v>4995.8</v>
+      </c>
+      <c r="E348" s="14">
+        <v>4995.8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f t="shared" si="16"/>
+        <v>347</v>
+      </c>
+      <c r="B349" s="3">
+        <f t="shared" si="17"/>
+        <v>347</v>
+      </c>
+      <c r="C349" s="14">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="D349" s="14">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E349" s="13">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f t="shared" si="16"/>
+        <v>348</v>
+      </c>
+      <c r="B350" s="3">
+        <f t="shared" si="17"/>
+        <v>348</v>
+      </c>
+      <c r="C350" s="13">
+        <v>5003</v>
+      </c>
+      <c r="D350" s="14">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="E350" s="14">
+        <v>5002.8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f t="shared" si="16"/>
+        <v>349</v>
+      </c>
+      <c r="B351" s="3">
+        <f t="shared" si="17"/>
+        <v>349</v>
+      </c>
+      <c r="C351" s="14">
+        <v>5007.8999999999996</v>
+      </c>
+      <c r="D351" s="14">
+        <v>5007.7</v>
+      </c>
+      <c r="E351" s="13">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f t="shared" si="16"/>
+        <v>350</v>
+      </c>
+      <c r="B352" s="3">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+      <c r="C352" s="13">
+        <v>4997</v>
+      </c>
+      <c r="D352" s="13">
+        <v>4997</v>
+      </c>
+      <c r="E352" s="13">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f t="shared" si="16"/>
+        <v>351</v>
+      </c>
+      <c r="B353" s="3">
+        <f t="shared" si="17"/>
+        <v>351</v>
+      </c>
+      <c r="C353" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D353" s="13">
+        <v>5001</v>
+      </c>
+      <c r="E353" s="14">
+        <v>5001.1000000000004</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f t="shared" si="16"/>
+        <v>352</v>
+      </c>
+      <c r="B354" s="3">
+        <f t="shared" si="17"/>
+        <v>352</v>
+      </c>
+      <c r="C354" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="D354" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="E354" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f t="shared" si="16"/>
+        <v>353</v>
+      </c>
+      <c r="B355" s="3">
+        <f t="shared" si="17"/>
+        <v>353</v>
+      </c>
+      <c r="C355" s="14">
+        <v>5013.2</v>
+      </c>
+      <c r="D355" s="14">
+        <v>5013.2</v>
+      </c>
+      <c r="E355" s="14">
+        <v>5013.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f t="shared" si="16"/>
+        <v>354</v>
+      </c>
+      <c r="B356" s="3">
+        <f t="shared" si="17"/>
+        <v>354</v>
+      </c>
+      <c r="C356" s="14">
+        <v>5007.3999999999996</v>
+      </c>
+      <c r="D356" s="14">
+        <v>5007.3999999999996</v>
+      </c>
+      <c r="E356" s="14">
+        <v>5007.3999999999996</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f t="shared" si="16"/>
+        <v>355</v>
+      </c>
+      <c r="B357" s="3">
+        <f t="shared" si="17"/>
+        <v>355</v>
+      </c>
+      <c r="C357" s="14">
+        <v>4996.2</v>
+      </c>
+      <c r="D357" s="14">
+        <v>4996.2</v>
+      </c>
+      <c r="E357" s="14">
+        <v>4996.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f t="shared" si="16"/>
+        <v>356</v>
+      </c>
+      <c r="B358" s="3">
+        <f t="shared" si="17"/>
+        <v>356</v>
+      </c>
+      <c r="C358" s="14">
+        <v>5001.5</v>
+      </c>
+      <c r="D358" s="14">
+        <v>5001.3999999999996</v>
+      </c>
+      <c r="E358" s="14">
+        <v>5001.3999999999996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="16"/>
+        <v>357</v>
+      </c>
+      <c r="B359" s="3">
+        <f t="shared" si="17"/>
+        <v>357</v>
+      </c>
+      <c r="C359" s="14">
+        <v>5001.7</v>
+      </c>
+      <c r="D359" s="14">
+        <v>5001.7</v>
+      </c>
+      <c r="E359" s="14">
+        <v>5001.7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f t="shared" si="16"/>
+        <v>358</v>
+      </c>
+      <c r="B360" s="3">
+        <f t="shared" si="17"/>
+        <v>358</v>
+      </c>
+      <c r="C360" s="14">
+        <v>5001.5</v>
+      </c>
+      <c r="D360" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E360" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f t="shared" si="16"/>
+        <v>359</v>
+      </c>
+      <c r="B361" s="3">
+        <f t="shared" si="17"/>
+        <v>359</v>
+      </c>
+      <c r="C361" s="13">
+        <v>5011</v>
+      </c>
+      <c r="D361" s="14">
+        <v>5011.1000000000004</v>
+      </c>
+      <c r="E361" s="14">
+        <v>5011.1000000000004</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f t="shared" si="16"/>
+        <v>360</v>
+      </c>
+      <c r="B362" s="3">
+        <f t="shared" si="17"/>
+        <v>360</v>
+      </c>
+      <c r="C362" s="14">
+        <v>5001.7</v>
+      </c>
+      <c r="D362" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E362" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f t="shared" si="16"/>
+        <v>361</v>
+      </c>
+      <c r="B363" s="3">
+        <f t="shared" si="17"/>
+        <v>361</v>
+      </c>
+      <c r="C363" s="14">
+        <v>4999.5</v>
+      </c>
+      <c r="D363" s="14">
+        <v>4999.5</v>
+      </c>
+      <c r="E363" s="14">
+        <v>4999.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f t="shared" si="16"/>
+        <v>362</v>
+      </c>
+      <c r="B364" s="3">
+        <f t="shared" si="17"/>
+        <v>362</v>
+      </c>
+      <c r="C364" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D364" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="E364" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f t="shared" si="16"/>
+        <v>363</v>
+      </c>
+      <c r="B365" s="3">
+        <f t="shared" si="17"/>
+        <v>363</v>
+      </c>
+      <c r="C365" s="14">
+        <v>4999.5</v>
+      </c>
+      <c r="D365" s="14">
+        <v>4999.5</v>
+      </c>
+      <c r="E365" s="14">
+        <v>4999.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f t="shared" si="16"/>
+        <v>364</v>
+      </c>
+      <c r="B366" s="3">
+        <f t="shared" si="17"/>
+        <v>364</v>
+      </c>
+      <c r="C366" s="14">
+        <v>5006.2</v>
+      </c>
+      <c r="D366" s="14">
+        <v>5006.2</v>
+      </c>
+      <c r="E366" s="14">
+        <v>5006.2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="B367" s="3">
+        <f t="shared" si="17"/>
+        <v>365</v>
+      </c>
+      <c r="C367" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="D367" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="E367" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f t="shared" si="16"/>
+        <v>366</v>
+      </c>
+      <c r="B368" s="3">
+        <f t="shared" si="17"/>
+        <v>366</v>
+      </c>
+      <c r="C368" s="14">
+        <v>4998.2</v>
+      </c>
+      <c r="D368" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="E368" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="16"/>
+        <v>367</v>
+      </c>
+      <c r="B369" s="3">
+        <f t="shared" si="17"/>
+        <v>367</v>
+      </c>
+      <c r="C369" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+      <c r="D369" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+      <c r="E369" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="16"/>
+        <v>368</v>
+      </c>
+      <c r="B370" s="3">
+        <f t="shared" si="17"/>
+        <v>368</v>
+      </c>
+      <c r="C370" s="14">
+        <v>5002.8999999999996</v>
+      </c>
+      <c r="D370" s="14">
+        <v>5003</v>
+      </c>
+      <c r="E370" s="14">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="16"/>
+        <v>369</v>
+      </c>
+      <c r="B371" s="3">
+        <f t="shared" si="17"/>
+        <v>369</v>
+      </c>
+      <c r="C371" s="14">
+        <v>4997.8</v>
+      </c>
+      <c r="D371" s="14">
+        <v>4998</v>
+      </c>
+      <c r="E371" s="14">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="16"/>
+        <v>370</v>
+      </c>
+      <c r="B372" s="3">
+        <f t="shared" si="17"/>
+        <v>370</v>
+      </c>
+      <c r="C372" s="14">
+        <v>5004.7</v>
+      </c>
+      <c r="D372" s="14">
+        <v>5004.7</v>
+      </c>
+      <c r="E372" s="14">
+        <v>5004.7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="16"/>
+        <v>371</v>
+      </c>
+      <c r="B373" s="3">
+        <f t="shared" si="17"/>
+        <v>371</v>
+      </c>
+      <c r="C373" s="14">
+        <v>5004.5</v>
+      </c>
+      <c r="D373" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+      <c r="E373" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" ref="A374:B377" si="18">A373+1</f>
+        <v>372</v>
+      </c>
+      <c r="B374" s="3">
+        <f t="shared" si="18"/>
+        <v>372</v>
+      </c>
+      <c r="C374" s="14">
+        <v>5004.5</v>
+      </c>
+      <c r="D374" s="14">
+        <v>5004.5</v>
+      </c>
+      <c r="E374" s="14">
+        <v>5004.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f t="shared" si="18"/>
+        <v>373</v>
+      </c>
+      <c r="B375" s="3">
+        <f t="shared" si="18"/>
+        <v>373</v>
+      </c>
+      <c r="C375" s="14">
+        <v>5005</v>
+      </c>
+      <c r="D375" s="14">
+        <v>5005</v>
+      </c>
+      <c r="E375" s="14">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f t="shared" si="18"/>
+        <v>374</v>
+      </c>
+      <c r="B376" s="3">
+        <f t="shared" si="18"/>
+        <v>374</v>
+      </c>
+      <c r="C376" s="14">
+        <v>5007.2</v>
+      </c>
+      <c r="D376" s="14">
+        <v>5007.2</v>
+      </c>
+      <c r="E376" s="14">
+        <v>5007.2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f t="shared" si="18"/>
+        <v>375</v>
+      </c>
+      <c r="B377" s="3">
+        <f t="shared" si="18"/>
+        <v>375</v>
+      </c>
+      <c r="C377" s="14">
+        <v>5011.5</v>
+      </c>
+      <c r="D377" s="14">
+        <v>5011.5</v>
+      </c>
+      <c r="E377" s="14">
+        <v>5011.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f t="shared" ref="A378:B378" si="19">A377+1</f>
+        <v>376</v>
+      </c>
+      <c r="B378" s="3">
+        <f t="shared" si="19"/>
+        <v>376</v>
+      </c>
+      <c r="C378" s="14">
+        <v>5007.3</v>
+      </c>
+      <c r="D378" s="14">
+        <v>5007.3</v>
+      </c>
+      <c r="E378" s="14">
+        <v>5007.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f t="shared" ref="A379:B379" si="20">A378+1</f>
+        <v>377</v>
+      </c>
+      <c r="B379" s="3">
+        <f t="shared" si="20"/>
+        <v>377</v>
+      </c>
+      <c r="C379" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="D379" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="E379" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f t="shared" ref="A380:B380" si="21">A379+1</f>
+        <v>378</v>
+      </c>
+      <c r="B380" s="3">
+        <f t="shared" si="21"/>
+        <v>378</v>
+      </c>
+      <c r="C380" s="14">
+        <v>5002</v>
+      </c>
+      <c r="D380" s="14">
+        <v>5002</v>
+      </c>
+      <c r="E380" s="14">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f t="shared" ref="A381:B381" si="22">A380+1</f>
+        <v>379</v>
+      </c>
+      <c r="B381" s="3">
+        <f t="shared" si="22"/>
+        <v>379</v>
+      </c>
+      <c r="C381" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D381" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E381" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f t="shared" ref="A382:B382" si="23">A381+1</f>
+        <v>380</v>
+      </c>
+      <c r="B382" s="3">
+        <f t="shared" si="23"/>
+        <v>380</v>
+      </c>
+      <c r="C382" s="14">
+        <v>5010.2</v>
+      </c>
+      <c r="D382" s="14">
+        <v>5010.2</v>
+      </c>
+      <c r="E382" s="14">
+        <v>5010.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f t="shared" ref="A383:B383" si="24">A382+1</f>
+        <v>381</v>
+      </c>
+      <c r="B383" s="3">
+        <f t="shared" si="24"/>
+        <v>381</v>
+      </c>
+      <c r="C383" s="14">
+        <v>5000.7</v>
+      </c>
+      <c r="D383" s="14">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="E383" s="14">
+        <v>5000.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f t="shared" ref="A384:B384" si="25">A383+1</f>
+        <v>382</v>
+      </c>
+      <c r="B384" s="3">
+        <f t="shared" si="25"/>
+        <v>382</v>
+      </c>
+      <c r="C384" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="D384" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="E384" s="14">
+        <v>4995.6000000000004</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f t="shared" ref="A385:B385" si="26">A384+1</f>
+        <v>383</v>
+      </c>
+      <c r="B385" s="3">
+        <f t="shared" si="26"/>
+        <v>383</v>
+      </c>
+      <c r="C385" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="D385" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="E385" s="14">
+        <v>5002.5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f t="shared" ref="A386:B386" si="27">A385+1</f>
+        <v>384</v>
+      </c>
+      <c r="B386" s="3">
+        <f t="shared" si="27"/>
+        <v>384</v>
+      </c>
+      <c r="C386" s="14">
+        <v>4996.2</v>
+      </c>
+      <c r="D386" s="14">
+        <v>4996.2</v>
+      </c>
+      <c r="E386" s="14">
+        <v>4996.2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f t="shared" ref="A387:B387" si="28">A386+1</f>
+        <v>385</v>
+      </c>
+      <c r="B387" s="3">
+        <f t="shared" si="28"/>
+        <v>385</v>
+      </c>
+      <c r="C387" s="14">
+        <v>5004.3</v>
+      </c>
+      <c r="D387" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="E387" s="14">
+        <v>5004.3999999999996</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f t="shared" ref="A388:B388" si="29">A387+1</f>
+        <v>386</v>
+      </c>
+      <c r="B388" s="3">
+        <f t="shared" si="29"/>
+        <v>386</v>
+      </c>
+      <c r="C388" s="14">
+        <v>4995.3999999999996</v>
+      </c>
+      <c r="D388" s="14">
+        <v>4995.2</v>
+      </c>
+      <c r="E388" s="14">
+        <v>4995.2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f t="shared" ref="A389:B389" si="30">A388+1</f>
+        <v>387</v>
+      </c>
+      <c r="B389" s="3">
+        <f t="shared" si="30"/>
+        <v>387</v>
+      </c>
+      <c r="C389" s="14">
+        <v>4995.8999999999996</v>
+      </c>
+      <c r="D389" s="14">
+        <v>4996</v>
+      </c>
+      <c r="E389" s="14">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f t="shared" ref="A390:B390" si="31">A389+1</f>
+        <v>388</v>
+      </c>
+      <c r="B390" s="3">
+        <f t="shared" si="31"/>
+        <v>388</v>
+      </c>
+      <c r="C390" s="14">
+        <v>4996.1000000000004</v>
+      </c>
+      <c r="D390" s="14">
+        <v>4996.1000000000004</v>
+      </c>
+      <c r="E390" s="14">
+        <v>4996.1000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f t="shared" ref="A391:B391" si="32">A390+1</f>
+        <v>389</v>
+      </c>
+      <c r="B391" s="3">
+        <f t="shared" si="32"/>
+        <v>389</v>
+      </c>
+      <c r="C391" s="14">
+        <v>5008.3999999999996</v>
+      </c>
+      <c r="D391" s="14">
+        <v>5008.3999999999996</v>
+      </c>
+      <c r="E391" s="14">
+        <v>5008.3999999999996</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f t="shared" ref="A392:B392" si="33">A391+1</f>
+        <v>390</v>
+      </c>
+      <c r="B392" s="3">
+        <f t="shared" si="33"/>
+        <v>390</v>
+      </c>
+      <c r="C392" s="14">
+        <v>5008.7</v>
+      </c>
+      <c r="D392" s="14">
+        <v>5008.7</v>
+      </c>
+      <c r="E392" s="14">
+        <v>5008.7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f t="shared" ref="A393:B393" si="34">A392+1</f>
+        <v>391</v>
+      </c>
+      <c r="B393" s="3">
+        <f t="shared" si="34"/>
+        <v>391</v>
+      </c>
+      <c r="C393" s="14">
+        <v>5014</v>
+      </c>
+      <c r="D393" s="14">
+        <v>5014</v>
+      </c>
+      <c r="E393" s="14">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f t="shared" ref="A394:B394" si="35">A393+1</f>
+        <v>392</v>
+      </c>
+      <c r="B394" s="3">
+        <f t="shared" si="35"/>
+        <v>392</v>
+      </c>
+      <c r="C394" s="14">
+        <v>4999.3</v>
+      </c>
+      <c r="D394" s="14">
+        <v>4999.3</v>
+      </c>
+      <c r="E394" s="14">
+        <v>4999.3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f t="shared" ref="A395:B395" si="36">A394+1</f>
+        <v>393</v>
+      </c>
+      <c r="B395" s="3">
+        <f t="shared" si="36"/>
+        <v>393</v>
+      </c>
+      <c r="C395" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D395" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="E395" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f t="shared" ref="A396:B396" si="37">A395+1</f>
+        <v>394</v>
+      </c>
+      <c r="B396" s="3">
+        <f t="shared" si="37"/>
+        <v>394</v>
+      </c>
+      <c r="C396" s="14">
+        <v>5006.7</v>
+      </c>
+      <c r="D396" s="14">
+        <v>5006.8</v>
+      </c>
+      <c r="E396" s="14">
+        <v>5006.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f t="shared" ref="A397:B397" si="38">A396+1</f>
+        <v>395</v>
+      </c>
+      <c r="B397" s="3">
+        <f t="shared" si="38"/>
+        <v>395</v>
+      </c>
+      <c r="C397" s="14">
+        <v>5006.1000000000004</v>
+      </c>
+      <c r="D397" s="14">
+        <v>5006</v>
+      </c>
+      <c r="E397" s="14">
+        <v>5005.8999999999996</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f t="shared" ref="A398:B398" si="39">A397+1</f>
+        <v>396</v>
+      </c>
+      <c r="B398" s="3">
+        <f t="shared" si="39"/>
+        <v>396</v>
+      </c>
+      <c r="C398" s="14">
+        <v>5005.5</v>
+      </c>
+      <c r="D398" s="14">
+        <v>5005.5</v>
+      </c>
+      <c r="E398" s="14">
+        <v>5005.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f t="shared" ref="A399:B399" si="40">A398+1</f>
+        <v>397</v>
+      </c>
+      <c r="B399" s="3">
+        <f t="shared" si="40"/>
+        <v>397</v>
+      </c>
+      <c r="C399" s="14">
+        <v>5003.3</v>
+      </c>
+      <c r="D399" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="E399" s="14">
+        <v>5003.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f t="shared" ref="A400:B400" si="41">A399+1</f>
+        <v>398</v>
+      </c>
+      <c r="B400" s="3">
+        <f t="shared" si="41"/>
+        <v>398</v>
+      </c>
+      <c r="C400" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D400" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="E400" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f t="shared" ref="A401:B401" si="42">A400+1</f>
+        <v>399</v>
+      </c>
+      <c r="B401" s="3">
+        <f t="shared" si="42"/>
+        <v>399</v>
+      </c>
+      <c r="C401" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="D401" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="E401" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f t="shared" ref="A402:B402" si="43">A401+1</f>
+        <v>400</v>
+      </c>
+      <c r="B402" s="3">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+      <c r="C402" s="14">
+        <v>5000.8</v>
+      </c>
+      <c r="D402" s="14">
+        <v>5000.7</v>
+      </c>
+      <c r="E402" s="14">
+        <v>5000.8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f t="shared" ref="A403:B403" si="44">A402+1</f>
+        <v>401</v>
+      </c>
+      <c r="B403" s="3">
+        <f t="shared" si="44"/>
+        <v>401</v>
+      </c>
+      <c r="C403" s="14">
+        <v>4996.6000000000004</v>
+      </c>
+      <c r="D403" s="14">
+        <v>4996.7</v>
+      </c>
+      <c r="E403" s="14">
+        <v>4996.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f t="shared" ref="A404:B404" si="45">A403+1</f>
+        <v>402</v>
+      </c>
+      <c r="B404" s="3">
+        <f t="shared" si="45"/>
+        <v>402</v>
+      </c>
+      <c r="C404" s="14">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="D404" s="14">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="E404" s="14">
+        <v>5004.1000000000004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f t="shared" ref="A405:B405" si="46">A404+1</f>
+        <v>403</v>
+      </c>
+      <c r="B405" s="3">
+        <f t="shared" si="46"/>
+        <v>403</v>
+      </c>
+      <c r="C405" s="14">
+        <v>5002.2</v>
+      </c>
+      <c r="D405" s="14">
+        <v>5002.2</v>
+      </c>
+      <c r="E405" s="14">
+        <v>5002.2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f t="shared" ref="A406:B406" si="47">A405+1</f>
+        <v>404</v>
+      </c>
+      <c r="B406" s="3">
+        <f t="shared" si="47"/>
+        <v>404</v>
+      </c>
+      <c r="C406" s="14">
+        <v>5015.7</v>
+      </c>
+      <c r="D406" s="14">
+        <v>5015.7</v>
+      </c>
+      <c r="E406" s="14">
+        <v>5015.7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f t="shared" ref="A407:B407" si="48">A406+1</f>
+        <v>405</v>
+      </c>
+      <c r="B407" s="3">
+        <f t="shared" si="48"/>
+        <v>405</v>
+      </c>
+      <c r="C407" s="14">
+        <v>5005.5</v>
+      </c>
+      <c r="D407" s="14">
+        <v>5005.3</v>
+      </c>
+      <c r="E407" s="14">
+        <v>5005.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f t="shared" ref="A408:B408" si="49">A407+1</f>
+        <v>406</v>
+      </c>
+      <c r="B408" s="3">
+        <f t="shared" si="49"/>
+        <v>406</v>
+      </c>
+      <c r="C408" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="D408" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E408" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f t="shared" ref="A409:B409" si="50">A408+1</f>
+        <v>407</v>
+      </c>
+      <c r="B409" s="3">
+        <f t="shared" si="50"/>
+        <v>407</v>
+      </c>
+      <c r="C409" s="14">
+        <v>5001.7</v>
+      </c>
+      <c r="D409" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E409" s="14">
+        <v>5001.7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f t="shared" ref="A410:B410" si="51">A409+1</f>
+        <v>408</v>
+      </c>
+      <c r="B410" s="3">
+        <f t="shared" si="51"/>
+        <v>408</v>
+      </c>
+      <c r="C410" s="14">
+        <v>5001.3</v>
+      </c>
+      <c r="D410" s="14">
+        <v>5001.2</v>
+      </c>
+      <c r="E410" s="14">
+        <v>5001.3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f t="shared" ref="A411:B411" si="52">A410+1</f>
+        <v>409</v>
+      </c>
+      <c r="B411" s="3">
+        <f t="shared" si="52"/>
+        <v>409</v>
+      </c>
+      <c r="C411" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="D411" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="E411" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f t="shared" ref="A412:B412" si="53">A411+1</f>
+        <v>410</v>
+      </c>
+      <c r="B412" s="3">
+        <f t="shared" si="53"/>
+        <v>410</v>
+      </c>
+      <c r="C412" s="14">
+        <v>5001.3</v>
+      </c>
+      <c r="D412" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E412" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f t="shared" ref="A413:B413" si="54">A412+1</f>
+        <v>411</v>
+      </c>
+      <c r="B413" s="3">
+        <f t="shared" si="54"/>
+        <v>411</v>
+      </c>
+      <c r="C413" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="D413" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="E413" s="14">
+        <v>5004.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f t="shared" ref="A414:B414" si="55">A413+1</f>
+        <v>412</v>
+      </c>
+      <c r="B414" s="3">
+        <f t="shared" si="55"/>
+        <v>412</v>
+      </c>
+      <c r="C414" s="14">
+        <v>5015.6000000000004</v>
+      </c>
+      <c r="D414" s="14">
+        <v>5016.3</v>
+      </c>
+      <c r="E414" s="14">
+        <v>5016.3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f t="shared" ref="A415:B415" si="56">A414+1</f>
+        <v>413</v>
+      </c>
+      <c r="B415" s="3">
+        <f t="shared" si="56"/>
+        <v>413</v>
+      </c>
+      <c r="C415" s="14">
+        <v>5008.6000000000004</v>
+      </c>
+      <c r="D415" s="14">
+        <v>5008.6000000000004</v>
+      </c>
+      <c r="E415" s="14">
+        <v>5008.6000000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f t="shared" ref="A416:B416" si="57">A415+1</f>
+        <v>414</v>
+      </c>
+      <c r="B416" s="3">
+        <f t="shared" si="57"/>
+        <v>414</v>
+      </c>
+      <c r="C416" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="D416" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="E416" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f t="shared" ref="A417:B417" si="58">A416+1</f>
+        <v>415</v>
+      </c>
+      <c r="B417" s="3">
+        <f t="shared" si="58"/>
+        <v>415</v>
+      </c>
+      <c r="C417" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="D417" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="E417" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <f t="shared" ref="A418:B418" si="59">A417+1</f>
+        <v>416</v>
+      </c>
+      <c r="B418" s="3">
+        <f t="shared" si="59"/>
+        <v>416</v>
+      </c>
+      <c r="C418" s="14">
+        <v>4994.5</v>
+      </c>
+      <c r="D418" s="14">
+        <v>4994.5</v>
+      </c>
+      <c r="E418" s="14">
+        <v>4994.5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <f t="shared" ref="A419:B419" si="60">A418+1</f>
+        <v>417</v>
+      </c>
+      <c r="B419" s="3">
+        <f t="shared" si="60"/>
+        <v>417</v>
+      </c>
+      <c r="C419" s="14">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D419" s="14">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="E419" s="14">
+        <v>5001.8999999999996</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <f t="shared" ref="A420:B420" si="61">A419+1</f>
+        <v>418</v>
+      </c>
+      <c r="B420" s="3">
+        <f t="shared" si="61"/>
+        <v>418</v>
+      </c>
+      <c r="C420" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="D420" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="E420" s="14">
+        <v>5003.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <f t="shared" ref="A421:B421" si="62">A420+1</f>
+        <v>419</v>
+      </c>
+      <c r="B421" s="3">
+        <f t="shared" si="62"/>
+        <v>419</v>
+      </c>
+      <c r="C421" s="14">
+        <v>5011.8999999999996</v>
+      </c>
+      <c r="D421" s="14">
+        <v>5011.8999999999996</v>
+      </c>
+      <c r="E421" s="14">
+        <v>5011.8999999999996</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <f t="shared" ref="A422:B422" si="63">A421+1</f>
+        <v>420</v>
+      </c>
+      <c r="B422" s="3">
+        <f t="shared" si="63"/>
+        <v>420</v>
+      </c>
+      <c r="C422" s="14">
+        <v>5002.7</v>
+      </c>
+      <c r="D422" s="14">
+        <v>5002.7</v>
+      </c>
+      <c r="E422" s="14">
+        <v>5002.7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <f t="shared" ref="A423:B423" si="64">A422+1</f>
+        <v>421</v>
+      </c>
+      <c r="B423" s="3">
+        <f t="shared" si="64"/>
+        <v>421</v>
+      </c>
+      <c r="C423" s="14">
+        <v>4999.3999999999996</v>
+      </c>
+      <c r="D423" s="14">
+        <v>4999.8</v>
+      </c>
+      <c r="E423" s="14">
+        <v>4999.8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <f t="shared" ref="A424:B424" si="65">A423+1</f>
+        <v>422</v>
+      </c>
+      <c r="B424" s="3">
+        <f t="shared" si="65"/>
+        <v>422</v>
+      </c>
+      <c r="C424" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="D424" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="E424" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <f t="shared" ref="A425:B425" si="66">A424+1</f>
+        <v>423</v>
+      </c>
+      <c r="B425" s="3">
+        <f t="shared" si="66"/>
+        <v>423</v>
+      </c>
+      <c r="C425" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D425" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="E425" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <f t="shared" ref="A426:B426" si="67">A425+1</f>
+        <v>424</v>
+      </c>
+      <c r="B426" s="3">
+        <f t="shared" si="67"/>
+        <v>424</v>
+      </c>
+      <c r="C426" s="14">
+        <v>5005.2</v>
+      </c>
+      <c r="D426" s="14">
+        <v>5005.2</v>
+      </c>
+      <c r="E426" s="14">
+        <v>5005.2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <f t="shared" ref="A427:B427" si="68">A426+1</f>
+        <v>425</v>
+      </c>
+      <c r="B427" s="3">
+        <f t="shared" si="68"/>
+        <v>425</v>
+      </c>
+      <c r="C427" s="14">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="D427" s="14">
+        <v>5000.3</v>
+      </c>
+      <c r="E427" s="14">
+        <v>5000.3999999999996</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <f t="shared" ref="A428:B428" si="69">A427+1</f>
+        <v>426</v>
+      </c>
+      <c r="B428" s="3">
+        <f t="shared" si="69"/>
+        <v>426</v>
+      </c>
+      <c r="C428" s="14">
+        <v>4999.2</v>
+      </c>
+      <c r="D428" s="14">
+        <v>4999.2</v>
+      </c>
+      <c r="E428" s="14">
+        <v>4999.2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <f t="shared" ref="A429:B429" si="70">A428+1</f>
+        <v>427</v>
+      </c>
+      <c r="B429" s="3">
+        <f t="shared" si="70"/>
+        <v>427</v>
+      </c>
+      <c r="C429" s="14">
+        <v>5003.8999999999996</v>
+      </c>
+      <c r="D429" s="14">
+        <v>5004</v>
+      </c>
+      <c r="E429" s="14">
+        <v>5003.8999999999996</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <f t="shared" ref="A430:B430" si="71">A429+1</f>
+        <v>428</v>
+      </c>
+      <c r="B430" s="3">
+        <f t="shared" si="71"/>
+        <v>428</v>
+      </c>
+      <c r="C430" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="D430" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="E430" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <f t="shared" ref="A431:B431" si="72">A430+1</f>
+        <v>429</v>
+      </c>
+      <c r="B431" s="3">
+        <f t="shared" si="72"/>
+        <v>429</v>
+      </c>
+      <c r="C431" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="D431" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+      <c r="E431" s="14">
+        <v>5003.6000000000004</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <f t="shared" ref="A432:B432" si="73">A431+1</f>
+        <v>430</v>
+      </c>
+      <c r="B432" s="3">
+        <f t="shared" si="73"/>
+        <v>430</v>
+      </c>
+      <c r="C432" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="D432" s="14">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="E432" s="14">
+        <v>5004.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <f t="shared" ref="A433:B433" si="74">A432+1</f>
+        <v>431</v>
+      </c>
+      <c r="B433" s="3">
+        <f t="shared" si="74"/>
+        <v>431</v>
+      </c>
+      <c r="C433" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="D433" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+      <c r="E433" s="14">
+        <v>5003.3999999999996</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <f t="shared" ref="A434:B434" si="75">A433+1</f>
+        <v>432</v>
+      </c>
+      <c r="B434" s="3">
+        <f t="shared" si="75"/>
+        <v>432</v>
+      </c>
+      <c r="C434" s="14">
+        <v>5004.3999999999996</v>
+      </c>
+      <c r="D434" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+      <c r="E434" s="14">
+        <v>5004.3999999999996</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <f t="shared" ref="A435:B435" si="76">A434+1</f>
+        <v>433</v>
+      </c>
+      <c r="B435" s="3">
+        <f t="shared" si="76"/>
+        <v>433</v>
+      </c>
+      <c r="C435" s="14">
+        <v>5000.3</v>
+      </c>
+      <c r="D435" s="14">
+        <v>5000.3</v>
+      </c>
+      <c r="E435" s="14">
+        <v>5000.3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <f t="shared" ref="A436:B436" si="77">A435+1</f>
+        <v>434</v>
+      </c>
+      <c r="B436" s="3">
+        <f t="shared" si="77"/>
+        <v>434</v>
+      </c>
+      <c r="C436" s="14">
+        <v>4998.8</v>
+      </c>
+      <c r="D436" s="14">
+        <v>4998.8</v>
+      </c>
+      <c r="E436" s="14">
+        <v>4998.8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <f t="shared" ref="A437:B437" si="78">A436+1</f>
+        <v>435</v>
+      </c>
+      <c r="B437" s="3">
+        <f t="shared" si="78"/>
+        <v>435</v>
+      </c>
+      <c r="C437" s="14">
+        <v>4996.7</v>
+      </c>
+      <c r="D437" s="14">
+        <v>4996.7</v>
+      </c>
+      <c r="E437" s="14">
+        <v>4996.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <f t="shared" ref="A438:B438" si="79">A437+1</f>
+        <v>436</v>
+      </c>
+      <c r="B438" s="3">
+        <f t="shared" si="79"/>
+        <v>436</v>
+      </c>
+      <c r="C438" s="14">
+        <v>4999.2</v>
+      </c>
+      <c r="D438" s="14">
+        <v>4999.2</v>
+      </c>
+      <c r="E438" s="14">
+        <v>4999.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <f t="shared" ref="A439:B439" si="80">A438+1</f>
+        <v>437</v>
+      </c>
+      <c r="B439" s="3">
+        <f t="shared" si="80"/>
+        <v>437</v>
+      </c>
+      <c r="C439" s="14">
+        <v>5001</v>
+      </c>
+      <c r="D439" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="E439" s="14">
+        <v>5000.8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <f t="shared" ref="A440:B440" si="81">A439+1</f>
+        <v>438</v>
+      </c>
+      <c r="B440" s="3">
+        <f t="shared" si="81"/>
+        <v>438</v>
+      </c>
+      <c r="C440" s="14">
+        <v>5000.8</v>
+      </c>
+      <c r="D440" s="14">
+        <v>5000.8</v>
+      </c>
+      <c r="E440" s="14">
+        <v>5000.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <f t="shared" ref="A441:B441" si="82">A440+1</f>
+        <v>439</v>
+      </c>
+      <c r="B441" s="3">
+        <f t="shared" si="82"/>
+        <v>439</v>
+      </c>
+      <c r="C441" s="14">
+        <v>4996.3999999999996</v>
+      </c>
+      <c r="D441" s="14">
+        <v>4996.3</v>
+      </c>
+      <c r="E441" s="14">
+        <v>4996.3999999999996</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <f t="shared" ref="A442:B442" si="83">A441+1</f>
+        <v>440</v>
+      </c>
+      <c r="B442" s="3">
+        <f t="shared" si="83"/>
+        <v>440</v>
+      </c>
+      <c r="C442" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+      <c r="D442" s="14">
+        <v>5002.7</v>
+      </c>
+      <c r="E442" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <f t="shared" ref="A443:B443" si="84">A442+1</f>
+        <v>441</v>
+      </c>
+      <c r="B443" s="3">
+        <f t="shared" si="84"/>
+        <v>441</v>
+      </c>
+      <c r="C443" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="D443" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="E443" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <f t="shared" ref="A444:B444" si="85">A443+1</f>
+        <v>442</v>
+      </c>
+      <c r="B444" s="3">
+        <f t="shared" si="85"/>
+        <v>442</v>
+      </c>
+      <c r="C444" s="14">
+        <v>5006.5</v>
+      </c>
+      <c r="D444" s="14">
+        <v>5006.5</v>
+      </c>
+      <c r="E444" s="14">
+        <v>5006.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <f t="shared" ref="A445:B445" si="86">A444+1</f>
+        <v>443</v>
+      </c>
+      <c r="B445" s="3">
+        <f t="shared" si="86"/>
+        <v>443</v>
+      </c>
+      <c r="C445" s="14">
+        <v>5012.2</v>
+      </c>
+      <c r="D445" s="14">
+        <v>5012.2</v>
+      </c>
+      <c r="E445" s="14">
+        <v>5012.2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <f t="shared" ref="A446:B446" si="87">A445+1</f>
+        <v>444</v>
+      </c>
+      <c r="B446" s="3">
+        <f t="shared" si="87"/>
+        <v>444</v>
+      </c>
+      <c r="C446" s="5">
+        <v>5001.8999999999996</v>
+      </c>
+      <c r="D446" s="14">
+        <v>5001.8</v>
+      </c>
+      <c r="E446" s="14">
+        <v>5001.8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <f t="shared" ref="A447:B447" si="88">A446+1</f>
+        <v>445</v>
+      </c>
+      <c r="B447" s="3">
+        <f t="shared" si="88"/>
+        <v>445</v>
+      </c>
+      <c r="C447" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="D447" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="E447" s="14">
+        <v>5002.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <f t="shared" ref="A448:B448" si="89">A447+1</f>
+        <v>446</v>
+      </c>
+      <c r="B448" s="3">
+        <f t="shared" si="89"/>
+        <v>446</v>
+      </c>
+      <c r="C448" s="14">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="D448" s="14">
+        <v>5000.3999999999996</v>
+      </c>
+      <c r="E448" s="14">
+        <v>5000.3999999999996</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <f t="shared" ref="A449:B449" si="90">A448+1</f>
+        <v>447</v>
+      </c>
+      <c r="B449" s="3">
+        <f t="shared" si="90"/>
+        <v>447</v>
+      </c>
+      <c r="C449" s="14">
+        <v>4994.1000000000004</v>
+      </c>
+      <c r="D449" s="14">
+        <v>4994.1000000000004</v>
+      </c>
+      <c r="E449" s="14">
+        <v>4994.1000000000004</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <f t="shared" ref="A450:B450" si="91">A449+1</f>
+        <v>448</v>
+      </c>
+      <c r="B450" s="3">
+        <f t="shared" si="91"/>
+        <v>448</v>
+      </c>
+      <c r="C450" s="14">
+        <v>4996.5</v>
+      </c>
+      <c r="D450" s="14">
+        <v>4996.5</v>
+      </c>
+      <c r="E450" s="14">
+        <v>4996.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <f t="shared" ref="A451:B451" si="92">A450+1</f>
+        <v>449</v>
+      </c>
+      <c r="B451" s="3">
+        <f t="shared" si="92"/>
+        <v>449</v>
+      </c>
+      <c r="C451" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+      <c r="D451" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+      <c r="E451" s="14">
+        <v>5004.6000000000004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <f t="shared" ref="A452:B452" si="93">A451+1</f>
+        <v>450</v>
+      </c>
+      <c r="B452" s="3">
+        <f t="shared" si="93"/>
+        <v>450</v>
+      </c>
+      <c r="C452" s="14">
+        <v>4997</v>
+      </c>
+      <c r="D452" s="14">
+        <v>4997.1000000000004</v>
+      </c>
+      <c r="E452" s="14">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <f t="shared" ref="A453:B453" si="94">A452+1</f>
+        <v>451</v>
+      </c>
+      <c r="B453" s="3">
+        <f t="shared" si="94"/>
+        <v>451</v>
+      </c>
+      <c r="C453" s="14">
+        <v>4999.7</v>
+      </c>
+      <c r="D453" s="14">
+        <v>4999.7</v>
+      </c>
+      <c r="E453" s="14">
+        <v>4999.7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <f t="shared" ref="A454:B454" si="95">A453+1</f>
+        <v>452</v>
+      </c>
+      <c r="B454" s="3">
+        <f t="shared" si="95"/>
+        <v>452</v>
+      </c>
+      <c r="C454" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+      <c r="D454" s="14">
+        <v>4997.5</v>
+      </c>
+      <c r="E454" s="14">
+        <v>4997.3999999999996</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <f t="shared" ref="A455:B455" si="96">A454+1</f>
+        <v>453</v>
+      </c>
+      <c r="B455" s="3">
+        <f t="shared" si="96"/>
+        <v>453</v>
+      </c>
+      <c r="C455" s="14">
+        <v>4998.6000000000004</v>
+      </c>
+      <c r="D455" s="14">
+        <v>4998.7</v>
+      </c>
+      <c r="E455" s="14">
+        <v>4998.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <f t="shared" ref="A456:B456" si="97">A455+1</f>
+        <v>454</v>
+      </c>
+      <c r="B456" s="3">
+        <f t="shared" si="97"/>
+        <v>454</v>
+      </c>
+      <c r="C456" s="14">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="D456" s="14">
+        <v>4995.1000000000004</v>
+      </c>
+      <c r="E456" s="14">
+        <v>4995.1000000000004</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <f t="shared" ref="A457:B457" si="98">A456+1</f>
+        <v>455</v>
+      </c>
+      <c r="B457" s="3">
+        <f t="shared" si="98"/>
+        <v>455</v>
+      </c>
+      <c r="C457" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="D457" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="E457" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <f t="shared" ref="A458:B458" si="99">A457+1</f>
+        <v>456</v>
+      </c>
+      <c r="B458" s="3">
+        <f t="shared" si="99"/>
+        <v>456</v>
+      </c>
+      <c r="C458" s="14">
+        <v>4998.7</v>
+      </c>
+      <c r="D458" s="14">
+        <v>4998.8</v>
+      </c>
+      <c r="E458" s="14">
+        <v>4998.7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <f t="shared" ref="A459:B459" si="100">A458+1</f>
+        <v>457</v>
+      </c>
+      <c r="B459" s="3">
+        <f t="shared" si="100"/>
+        <v>457</v>
+      </c>
+      <c r="C459" s="14">
+        <v>5006.5</v>
+      </c>
+      <c r="D459" s="14">
+        <v>5006.5</v>
+      </c>
+      <c r="E459" s="14">
+        <v>5006.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <f t="shared" ref="A460:B460" si="101">A459+1</f>
+        <v>458</v>
+      </c>
+      <c r="B460" s="3">
+        <f t="shared" si="101"/>
+        <v>458</v>
+      </c>
+      <c r="C460" s="14">
+        <v>5009.3999999999996</v>
+      </c>
+      <c r="D460" s="14">
+        <v>5009.5</v>
+      </c>
+      <c r="E460" s="14">
+        <v>5009.3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <f t="shared" ref="A461:B461" si="102">A460+1</f>
+        <v>459</v>
+      </c>
+      <c r="B461" s="3">
+        <f t="shared" si="102"/>
+        <v>459</v>
+      </c>
+      <c r="C461" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="D461" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="E461" s="14">
+        <v>4998.3999999999996</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <f t="shared" ref="A462:B462" si="103">A461+1</f>
+        <v>460</v>
+      </c>
+      <c r="B462" s="3">
+        <f t="shared" si="103"/>
+        <v>460</v>
+      </c>
+      <c r="C462" s="14">
+        <v>4998.7</v>
+      </c>
+      <c r="D462" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="E462" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <f t="shared" ref="A463:B463" si="104">A462+1</f>
+        <v>461</v>
+      </c>
+      <c r="B463" s="3">
+        <f t="shared" si="104"/>
+        <v>461</v>
+      </c>
+      <c r="C463" s="14">
+        <v>4990.6000000000004</v>
+      </c>
+      <c r="D463" s="14">
+        <v>4990.7</v>
+      </c>
+      <c r="E463" s="14">
+        <v>4990.7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <f t="shared" ref="A464:B464" si="105">A463+1</f>
+        <v>462</v>
+      </c>
+      <c r="B464" s="3">
+        <f t="shared" si="105"/>
+        <v>462</v>
+      </c>
+      <c r="C464" s="14">
+        <v>5000.2</v>
+      </c>
+      <c r="D464" s="14">
+        <v>5002.3999999999996</v>
+      </c>
+      <c r="E464" s="14">
+        <v>5002.3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <f t="shared" ref="A465:B465" si="106">A464+1</f>
+        <v>463</v>
+      </c>
+      <c r="B465" s="3">
+        <f t="shared" si="106"/>
+        <v>463</v>
+      </c>
+      <c r="C465" s="14">
+        <v>5006.6000000000004</v>
+      </c>
+      <c r="D465" s="14">
+        <v>5006.7</v>
+      </c>
+      <c r="E465" s="14">
+        <v>5006.6000000000004</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <f t="shared" ref="A466:B466" si="107">A465+1</f>
+        <v>464</v>
+      </c>
+      <c r="B466" s="3">
+        <f t="shared" si="107"/>
+        <v>464</v>
+      </c>
+      <c r="C466" s="14">
+        <v>4995</v>
+      </c>
+      <c r="D466" s="14">
+        <v>4995</v>
+      </c>
+      <c r="E466" s="14">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <f t="shared" ref="A467:B467" si="108">A466+1</f>
+        <v>465</v>
+      </c>
+      <c r="B467" s="3">
+        <f t="shared" si="108"/>
+        <v>465</v>
+      </c>
+      <c r="C467" s="14">
+        <v>5011.1000000000004</v>
+      </c>
+      <c r="D467" s="14">
+        <v>5011</v>
+      </c>
+      <c r="E467" s="14">
+        <v>5011.1000000000004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <f t="shared" ref="A468:B468" si="109">A467+1</f>
+        <v>466</v>
+      </c>
+      <c r="B468" s="3">
+        <f t="shared" si="109"/>
+        <v>466</v>
+      </c>
+      <c r="C468" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="D468" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="E468" s="14">
+        <v>4997.6000000000004</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <f t="shared" ref="A469:B469" si="110">A468+1</f>
+        <v>467</v>
+      </c>
+      <c r="B469" s="3">
+        <f t="shared" si="110"/>
+        <v>467</v>
+      </c>
+      <c r="C469" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="D469" s="14">
+        <v>5002.3999999999996</v>
+      </c>
+      <c r="E469" s="14">
+        <v>5002.3999999999996</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <f t="shared" ref="A470:B470" si="111">A469+1</f>
+        <v>468</v>
+      </c>
+      <c r="B470" s="3">
+        <f t="shared" si="111"/>
+        <v>468</v>
+      </c>
+      <c r="C470" s="14">
+        <v>5009.1000000000004</v>
+      </c>
+      <c r="D470" s="14">
+        <v>5009.1000000000004</v>
+      </c>
+      <c r="E470" s="14">
+        <v>5009.1000000000004</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <f t="shared" ref="A471:B471" si="112">A470+1</f>
+        <v>469</v>
+      </c>
+      <c r="B471" s="3">
+        <f t="shared" si="112"/>
+        <v>469</v>
+      </c>
+      <c r="C471" s="14">
+        <v>4999.7</v>
+      </c>
+      <c r="D471" s="14">
+        <v>4999.8</v>
+      </c>
+      <c r="E471" s="14">
+        <v>4999.7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <f t="shared" ref="A472:B472" si="113">A471+1</f>
+        <v>470</v>
+      </c>
+      <c r="B472" s="3">
+        <f t="shared" si="113"/>
+        <v>470</v>
+      </c>
+      <c r="C472" s="14">
+        <v>4998.3</v>
+      </c>
+      <c r="D472" s="14">
+        <v>4998.3</v>
+      </c>
+      <c r="E472" s="14">
+        <v>4998.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <f t="shared" ref="A473:B473" si="114">A472+1</f>
+        <v>471</v>
+      </c>
+      <c r="B473" s="3">
+        <f t="shared" si="114"/>
+        <v>471</v>
+      </c>
+      <c r="C473" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="D473" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+      <c r="E473" s="14">
+        <v>5004.8999999999996</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <f t="shared" ref="A474:B474" si="115">A473+1</f>
+        <v>472</v>
+      </c>
+      <c r="B474" s="3">
+        <f t="shared" si="115"/>
+        <v>472</v>
+      </c>
+      <c r="C474" s="14">
+        <v>5008.8999999999996</v>
+      </c>
+      <c r="D474" s="14">
+        <v>5009.1000000000004</v>
+      </c>
+      <c r="E474" s="14">
+        <v>5008.8999999999996</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <f t="shared" ref="A475:B475" si="116">A474+1</f>
+        <v>473</v>
+      </c>
+      <c r="B475" s="3">
+        <f t="shared" si="116"/>
+        <v>473</v>
+      </c>
+      <c r="C475" s="14">
+        <v>5002.7</v>
+      </c>
+      <c r="D475" s="14">
+        <v>5002.5</v>
+      </c>
+      <c r="E475" s="14">
+        <v>5002.6000000000004</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <f t="shared" ref="A476:B476" si="117">A475+1</f>
+        <v>474</v>
+      </c>
+      <c r="B476" s="3">
+        <f t="shared" si="117"/>
+        <v>474</v>
+      </c>
+      <c r="C476" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="D476" s="14">
+        <v>5001</v>
+      </c>
+      <c r="E476" s="14">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <f t="shared" ref="A477:B477" si="118">A476+1</f>
+        <v>475</v>
+      </c>
+      <c r="B477" s="3">
+        <f t="shared" si="118"/>
+        <v>475</v>
+      </c>
+      <c r="C477" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="D477" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+      <c r="E477" s="14">
+        <v>5001.6000000000004</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <f t="shared" ref="A478:B478" si="119">A477+1</f>
+        <v>476</v>
+      </c>
+      <c r="B478" s="3">
+        <f t="shared" si="119"/>
+        <v>476</v>
+      </c>
+      <c r="C478" s="14">
+        <v>5013.3</v>
+      </c>
+      <c r="D478" s="14">
+        <v>5013.3999999999996</v>
+      </c>
+      <c r="E478" s="14">
+        <v>5013.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <f t="shared" ref="A479:B479" si="120">A478+1</f>
+        <v>477</v>
+      </c>
+      <c r="B479" s="3">
+        <f t="shared" si="120"/>
+        <v>477</v>
+      </c>
+      <c r="C479" s="14">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="D479" s="5">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="E479" s="14">
+        <v>5003.1000000000004</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <f t="shared" ref="A480:B480" si="121">A479+1</f>
+        <v>478</v>
+      </c>
+      <c r="B480" s="3">
+        <f t="shared" si="121"/>
+        <v>478</v>
+      </c>
+      <c r="C480" s="14">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="D480" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="E480" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <f t="shared" ref="A481:B481" si="122">A480+1</f>
+        <v>479</v>
+      </c>
+      <c r="B481" s="3">
+        <f t="shared" si="122"/>
+        <v>479</v>
+      </c>
+      <c r="C481" s="14">
+        <v>5001.5</v>
+      </c>
+      <c r="D481" s="14">
+        <v>5001.5</v>
+      </c>
+      <c r="E481" s="14">
+        <v>5001.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <f t="shared" ref="A482:B482" si="123">A481+1</f>
+        <v>480</v>
+      </c>
+      <c r="B482" s="3">
+        <f t="shared" si="123"/>
+        <v>480</v>
+      </c>
+      <c r="C482" s="14">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="D482" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="E482" s="14">
+        <v>5000.7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <f t="shared" ref="A483:B483" si="124">A482+1</f>
+        <v>481</v>
+      </c>
+      <c r="B483" s="3">
+        <f t="shared" si="124"/>
+        <v>481</v>
+      </c>
+      <c r="C483" s="14">
+        <v>5005.5</v>
+      </c>
+      <c r="D483" s="14">
+        <v>5005.3999999999996</v>
+      </c>
+      <c r="E483" s="14">
+        <v>5005.3999999999996</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <f t="shared" ref="A484:B484" si="125">A483+1</f>
+        <v>482</v>
+      </c>
+      <c r="B484" s="3">
+        <f t="shared" si="125"/>
+        <v>482</v>
+      </c>
+      <c r="C484" s="14">
+        <v>4993.3</v>
+      </c>
+      <c r="D484" s="14">
+        <v>4993.3999999999996</v>
+      </c>
+      <c r="E484" s="14">
+        <v>4993.3999999999996</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <f t="shared" ref="A485:B485" si="126">A484+1</f>
+        <v>483</v>
+      </c>
+      <c r="B485" s="3">
+        <f t="shared" si="126"/>
+        <v>483</v>
+      </c>
+      <c r="C485" s="14">
+        <v>4999.7</v>
+      </c>
+      <c r="D485" s="14">
+        <v>4999.7</v>
+      </c>
+      <c r="E485" s="14">
+        <v>4999.7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <f t="shared" ref="A486:B486" si="127">A485+1</f>
+        <v>484</v>
+      </c>
+      <c r="B486" s="3">
+        <f t="shared" si="127"/>
+        <v>484</v>
+      </c>
+      <c r="C486" s="14">
+        <v>5006.3</v>
+      </c>
+      <c r="D486" s="14">
+        <v>5006.3999999999996</v>
+      </c>
+      <c r="E486" s="14">
+        <v>5006.3999999999996</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <f t="shared" ref="A487:B487" si="128">A486+1</f>
+        <v>485</v>
+      </c>
+      <c r="B487" s="3">
+        <f t="shared" si="128"/>
+        <v>485</v>
+      </c>
+      <c r="C487" s="14">
+        <v>5003.1000000000004</v>
+      </c>
+      <c r="D487" s="14">
+        <v>5003</v>
+      </c>
+      <c r="E487" s="14">
+        <v>5003.1000000000004</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <f t="shared" ref="A488:B488" si="129">A487+1</f>
+        <v>486</v>
+      </c>
+      <c r="B488" s="3">
+        <f t="shared" si="129"/>
+        <v>486</v>
+      </c>
+      <c r="C488" s="14">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="D488" s="14">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="E488" s="14">
+        <v>5000.6000000000004</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <f t="shared" ref="A489:B489" si="130">A488+1</f>
+        <v>487</v>
+      </c>
+      <c r="B489" s="3">
+        <f t="shared" si="130"/>
+        <v>487</v>
+      </c>
+      <c r="C489" s="14">
+        <v>4995.8</v>
+      </c>
+      <c r="D489" s="14">
+        <v>4996</v>
+      </c>
+      <c r="E489" s="14">
+        <v>4995.8999999999996</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <f t="shared" ref="A490:B490" si="131">A489+1</f>
+        <v>488</v>
+      </c>
+      <c r="B490" s="3">
+        <f t="shared" si="131"/>
+        <v>488</v>
+      </c>
+      <c r="C490" s="14">
+        <v>4998.2</v>
+      </c>
+      <c r="D490" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+      <c r="E490" s="14">
+        <v>4998.1000000000004</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <f t="shared" ref="A491:B491" si="132">A490+1</f>
+        <v>489</v>
+      </c>
+      <c r="B491" s="3">
+        <f t="shared" si="132"/>
+        <v>489</v>
+      </c>
+      <c r="C491" s="14">
+        <v>5000.8</v>
+      </c>
+      <c r="D491" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+      <c r="E491" s="14">
+        <v>5000.8999999999996</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <f t="shared" ref="A492:B492" si="133">A491+1</f>
+        <v>490</v>
+      </c>
+      <c r="B492" s="3">
+        <f t="shared" si="133"/>
+        <v>490</v>
+      </c>
+      <c r="C492" s="14">
+        <v>5004.2</v>
+      </c>
+      <c r="D492" s="14">
+        <v>5004.1000000000004</v>
+      </c>
+      <c r="E492" s="14">
+        <v>5003.8999999999996</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <f t="shared" ref="A493:B493" si="134">A492+1</f>
+        <v>491</v>
+      </c>
+      <c r="B493" s="3">
+        <f t="shared" si="134"/>
+        <v>491</v>
+      </c>
+      <c r="C493" s="14">
+        <v>4998.7</v>
+      </c>
+      <c r="D493" s="14">
+        <v>4998.8999999999996</v>
+      </c>
+      <c r="E493" s="5">
+        <v>4998.7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <f t="shared" ref="A494:B494" si="135">A493+1</f>
+        <v>492</v>
+      </c>
+      <c r="B494" s="3">
+        <f t="shared" si="135"/>
+        <v>492</v>
+      </c>
+      <c r="C494" s="14">
+        <v>5008.2</v>
+      </c>
+      <c r="D494" s="14">
+        <v>5008.3</v>
+      </c>
+      <c r="E494" s="14">
+        <v>5008.1000000000004</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <f t="shared" ref="A495:B495" si="136">A494+1</f>
+        <v>493</v>
+      </c>
+      <c r="B495" s="3">
+        <f t="shared" si="136"/>
+        <v>493</v>
+      </c>
+      <c r="C495" s="14">
+        <v>5011.2</v>
+      </c>
+      <c r="D495" s="14">
+        <v>5011.1000000000004</v>
+      </c>
+      <c r="E495" s="14">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <f t="shared" ref="A496:B496" si="137">A495+1</f>
+        <v>494</v>
+      </c>
+      <c r="B496" s="3">
+        <f t="shared" si="137"/>
+        <v>494</v>
+      </c>
+      <c r="C496" s="14">
+        <v>4992.6000000000004</v>
+      </c>
+      <c r="D496" s="14">
+        <v>4992.6000000000004</v>
+      </c>
+      <c r="E496" s="14">
+        <v>4992.6000000000004</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <f t="shared" ref="A497:B497" si="138">A496+1</f>
+        <v>495</v>
+      </c>
+      <c r="B497" s="3">
+        <f t="shared" si="138"/>
+        <v>495</v>
+      </c>
+      <c r="C497" s="14">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="D497" s="14">
+        <v>4997.8999999999996</v>
+      </c>
+      <c r="E497" s="14">
+        <v>4997.8999999999996</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <f t="shared" ref="A498:B498" si="139">A497+1</f>
+        <v>496</v>
+      </c>
+      <c r="B498" s="3">
+        <f t="shared" si="139"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <f t="shared" ref="A499:B499" si="140">A498+1</f>
+        <v>497</v>
+      </c>
+      <c r="B499" s="3">
+        <f t="shared" si="140"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <f t="shared" ref="A500:B500" si="141">A499+1</f>
+        <v>498</v>
+      </c>
+      <c r="B500" s="3">
+        <f t="shared" si="141"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <f t="shared" ref="A501:B501" si="142">A500+1</f>
+        <v>499</v>
+      </c>
+      <c r="B501" s="3">
+        <f t="shared" si="142"/>
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
